--- a/SFMC_Training/Grade Sheet.xlsx
+++ b/SFMC_Training/Grade Sheet.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Transmutation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SF184'!$A$1:$AH$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SF184'!$A$1:$AK$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>0-40</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Final Grade</t>
   </si>
   <si>
-    <t>0 to 0</t>
-  </si>
-  <si>
     <t>Student Number</t>
   </si>
   <si>
@@ -308,6 +302,30 @@
   </si>
   <si>
     <t>2nd Quarter 2022-2023</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0.00 to 0.00</t>
+  </si>
+  <si>
+    <t>Other Learning Activities (OLA)</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1006,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,117 +1245,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,15 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1403,15 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -1421,37 +1313,166 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,7 +1488,23 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="9"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1573,27 +1610,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1611,13 +1627,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1982,14 +1998,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DB72"/>
+  <dimension ref="A1:DE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="11" ySplit="10" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF50" sqref="AF50"/>
+      <selection pane="bottomRight" activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1997,319 +2013,339 @@
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.85546875" style="2" customWidth="1"/>
-    <col min="12" max="15" width="4.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.85546875" style="2" customWidth="1"/>
-    <col min="19" max="21" width="4.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="0.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="1" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="0.85546875" style="2" customWidth="1"/>
-    <col min="31" max="32" width="6.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.85546875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="1" customWidth="1"/>
-    <col min="36" max="106" width="9.140625" style="40"/>
-    <col min="107" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="0.85546875" style="2" customWidth="1"/>
+    <col min="15" max="18" width="4.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="0.85546875" style="2" customWidth="1"/>
+    <col min="22" max="24" width="4.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="0.85546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="1" customWidth="1"/>
+    <col min="31" max="32" width="5.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="0.85546875" style="2" customWidth="1"/>
+    <col min="34" max="35" width="6.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="0.85546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="1" customWidth="1"/>
+    <col min="39" max="109" width="9.140625" style="40"/>
+    <col min="110" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W1" s="3">
+    <row r="1" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="3">
         <v>50</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="3"/>
+      <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V2" s="3">
+    <row r="2" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="3">
         <f>19/40</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="W2" s="3">
+      <c r="Z2" s="3">
         <v>100</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:106" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:109" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="3" t="s">
+    <row r="4" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="AD4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+      <c r="AG4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:106" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+    <row r="5" spans="1:109" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
     </row>
-    <row r="6" spans="1:106" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:109" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="12"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:109" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="105" t="s">
+      <c r="B7" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="122"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="109" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="87" t="s">
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="90" t="s">
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="15"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:109" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16">
+      <c r="B8" s="123"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="17">
+      <c r="P8" s="17">
         <v>2</v>
       </c>
-      <c r="N8" s="17">
+      <c r="Q8" s="17">
         <v>3</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="R8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="99" t="s">
+      <c r="S8" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="101">
+      <c r="T8" s="143">
         <v>0.5</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="19" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="W8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="X8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="Y8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="Z8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="AA8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" s="103">
+      <c r="AB8" s="145">
         <v>0.2</v>
       </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="20" t="s">
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="105" t="s">
+      <c r="AE8" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="107">
+      <c r="AF8" s="147">
         <v>0.3</v>
       </c>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="15"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="15"/>
     </row>
-    <row r="9" spans="1:106" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:109" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="23">
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="23">
         <v>100</v>
       </c>
-      <c r="M9" s="18">
+      <c r="P9" s="18">
         <v>100</v>
       </c>
-      <c r="N9" s="18">
+      <c r="Q9" s="18">
         <v>100</v>
       </c>
-      <c r="O9" s="22">
+      <c r="R9" s="22">
         <v>300</v>
       </c>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="24">
+      <c r="S9" s="142"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="24">
         <v>100</v>
-      </c>
-      <c r="T9" s="24">
-        <v>100</v>
-      </c>
-      <c r="U9" s="24">
-        <v>200</v>
-      </c>
-      <c r="V9" s="25">
-        <v>0.1</v>
       </c>
       <c r="W9" s="24">
         <v>100</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="24">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="25">
         <v>0.1</v>
       </c>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="26">
+      <c r="Z9" s="24">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="26">
         <v>50</v>
       </c>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="15"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="15"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
@@ -2378,8 +2414,11 @@
       <c r="CZ9" s="64"/>
       <c r="DA9" s="64"/>
       <c r="DB9" s="64"/>
+      <c r="DC9" s="64"/>
+      <c r="DD9" s="64"/>
+      <c r="DE9" s="64"/>
     </row>
-    <row r="10" spans="1:106" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:109" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2413,10 +2452,10 @@
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="15"/>
       <c r="AM10" s="64"/>
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
@@ -2485,507 +2524,532 @@
       <c r="CZ10" s="64"/>
       <c r="DA10" s="64"/>
       <c r="DB10" s="64"/>
+      <c r="DC10" s="64"/>
+      <c r="DD10" s="64"/>
+      <c r="DE10" s="64"/>
     </row>
-    <row r="11" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
-      <c r="B11" s="146">
+      <c r="B11" s="104">
         <v>1</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="63">
+        <v>2019493096</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30">
+        <f>$T11+$AB11+$AF11</f>
+        <v>82.61666666666666</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30" t="str">
+        <f>VLOOKUP($I11,Transmutation!$A$2:$D$12,3,TRUE)</f>
+        <v>2.25</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="66" t="str">
+        <f>IF($K11="5.00", "Failed", IF($K11="8.00", "Dropped", "Passed"))</f>
+        <v>Passed</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="31">
+        <v>85</v>
+      </c>
+      <c r="P11" s="31">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>95</v>
+      </c>
+      <c r="R11" s="67">
+        <f>SUM(O11:Q11)</f>
+        <v>229</v>
+      </c>
+      <c r="S11" s="68">
+        <f>R11*100/SUM($O$9:$Q$9)</f>
+        <v>76.333333333333329</v>
+      </c>
+      <c r="T11" s="69">
+        <f>S11*$T$8</f>
+        <v>38.166666666666664</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="31">
+        <v>73</v>
+      </c>
+      <c r="W11" s="31">
+        <v>92</v>
+      </c>
+      <c r="X11" s="67">
+        <f>SUM(V11:W11)</f>
+        <v>165</v>
+      </c>
+      <c r="Y11" s="68">
+        <f>(X11/2)*$Y$9</f>
+        <v>8.25</v>
+      </c>
+      <c r="Z11" s="67">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="70">
+        <f>Z11*$AA$9</f>
+        <v>8</v>
+      </c>
+      <c r="AB11" s="69">
+        <f t="shared" ref="AB11:AB53" si="0">Y11+AA11</f>
+        <v>16.25</v>
+      </c>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="71">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="70">
+        <f>(AD11/$AD$9)*100</f>
+        <v>94</v>
+      </c>
+      <c r="AF11" s="69">
+        <f t="shared" ref="AF11:AF53" si="1">AE11*$AF$8</f>
+        <v>28.2</v>
+      </c>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI11" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK11" s="39"/>
+    </row>
+    <row r="12" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="104">
+        <v>2</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="63">
+        <v>2017417840</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30">
+        <f t="shared" ref="I12:I53" si="2">$T12+$AB12+$AF12</f>
+        <v>80.8</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30" t="str">
+        <f>VLOOKUP($I12,Transmutation!$A$2:$D$12,3,TRUE)</f>
+        <v>2.25</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="66" t="str">
+        <f t="shared" ref="M12:M53" si="3">IF(K12="5.00", "Failed", IF(K12="8.00", "Dropped", "Passed"))</f>
+        <v>Passed</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31">
+        <v>76</v>
+      </c>
+      <c r="P12" s="31">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="77">
+        <v>99</v>
+      </c>
+      <c r="R12" s="67">
+        <f t="shared" ref="R12:R14" si="4">SUM(O12:Q12)</f>
+        <v>270</v>
+      </c>
+      <c r="S12" s="78">
+        <f t="shared" ref="S12:S53" si="5">SUM(O12:Q12)*100/SUM($O$9:$Q$9)</f>
+        <v>90</v>
+      </c>
+      <c r="T12" s="69">
+        <f>S12*$T$8</f>
+        <v>45</v>
+      </c>
+      <c r="U12" s="29"/>
+      <c r="V12" s="31">
+        <v>68</v>
+      </c>
+      <c r="W12" s="31">
+        <v>76</v>
+      </c>
+      <c r="X12" s="67">
+        <f>SUM(V12:W12)</f>
+        <v>144</v>
+      </c>
+      <c r="Y12" s="68">
+        <f>(X12/2)*$Y$9</f>
+        <v>7.2</v>
+      </c>
+      <c r="Z12" s="67">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="70">
+        <f>Z12*$AA$9</f>
+        <v>10</v>
+      </c>
+      <c r="AB12" s="69">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
+      </c>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="79">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="70">
+        <f>(AD12/$AD$9)*100</f>
+        <v>62</v>
+      </c>
+      <c r="AF12" s="69">
+        <f t="shared" si="1"/>
+        <v>18.599999999999998</v>
+      </c>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="82">
+        <f>COUNTIF(K11:K53,"1")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="83">
+        <f t="shared" ref="AJ12:AJ23" si="6">AI12/$AI$24*100</f>
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="AK12" s="39"/>
+    </row>
+    <row r="13" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="104">
+        <v>3</v>
+      </c>
+      <c r="C13" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="63">
-        <v>2019493096</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30">
-        <f t="shared" ref="F11:F53" si="0">Q11+Y11+AC11</f>
-        <v>82.61666666666666</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30" t="str">
-        <f>VLOOKUP(F11,Transmutation!$A$2:$D$12,3,TRUE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="66" t="str">
-        <f>IF(H11="5.00", "Failed", IF(H11="8.00", "Dropped", "Passed"))</f>
-        <v>Passed</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="31">
-        <v>85</v>
-      </c>
-      <c r="M11" s="31">
-        <v>49</v>
-      </c>
-      <c r="N11" s="67">
-        <v>95</v>
-      </c>
-      <c r="O11" s="67">
-        <f>SUM(L11:N11)</f>
-        <v>229</v>
-      </c>
-      <c r="P11" s="68">
-        <f>O11*100/SUM($L$9:$N$9)</f>
-        <v>76.333333333333329</v>
-      </c>
-      <c r="Q11" s="69">
-        <f>P11*$Q$8</f>
-        <v>38.166666666666664</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="31">
-        <v>73</v>
-      </c>
-      <c r="T11" s="31">
-        <v>92</v>
-      </c>
-      <c r="U11" s="67">
-        <f>SUM(S11:T11)</f>
-        <v>165</v>
-      </c>
-      <c r="V11" s="68">
-        <f>(U11/2)*$V$9</f>
-        <v>8.25</v>
-      </c>
-      <c r="W11" s="67">
-        <v>80</v>
-      </c>
-      <c r="X11" s="70">
-        <f>W11*$X$9</f>
-        <v>8</v>
-      </c>
-      <c r="Y11" s="69">
-        <f t="shared" ref="Y11:Y53" si="1">V11+X11</f>
-        <v>16.25</v>
-      </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="71">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="70">
-        <f>(AA11/$AA$9)*100</f>
+      <c r="D13" s="29"/>
+      <c r="E13" s="63">
+        <v>2020272703</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AC11" s="69">
-        <f t="shared" ref="AC11:AC53" si="2">AB11*$AC$8</f>
-        <v>28.2</v>
-      </c>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF11" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG11" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH11" s="39"/>
-    </row>
-    <row r="12" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="146">
-        <v>2</v>
-      </c>
-      <c r="C12" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="63">
-        <v>2017417840</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30">
-        <f t="shared" si="0"/>
-        <v>80.8</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="str">
-        <f>VLOOKUP(F12,Transmutation!$A$2:$D$12,3,TRUE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="66" t="str">
-        <f t="shared" ref="J12:J53" si="3">IF(H12="5.00", "Failed", IF(H12="8.00", "Dropped", "Passed"))</f>
-        <v>Passed</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="31">
-        <v>76</v>
-      </c>
-      <c r="M12" s="31">
-        <v>95</v>
-      </c>
-      <c r="N12" s="77">
-        <v>99</v>
-      </c>
-      <c r="O12" s="67">
-        <f t="shared" ref="O12:O14" si="4">SUM(L12:N12)</f>
-        <v>270</v>
-      </c>
-      <c r="P12" s="78">
-        <f t="shared" ref="P12:P53" si="5">SUM(L12:N12)*100/SUM($L$9:$N$9)</f>
-        <v>90</v>
-      </c>
-      <c r="Q12" s="69">
-        <f>P12*$Q$8</f>
-        <v>45</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31">
-        <v>68</v>
-      </c>
-      <c r="T12" s="31">
-        <v>76</v>
-      </c>
-      <c r="U12" s="67">
-        <f>SUM(S12:T12)</f>
-        <v>144</v>
-      </c>
-      <c r="V12" s="68">
-        <f>(U12/2)*$V$9</f>
-        <v>7.2</v>
-      </c>
-      <c r="W12" s="67">
-        <v>100</v>
-      </c>
-      <c r="X12" s="70">
-        <f>W12*$X$9</f>
-        <v>10</v>
-      </c>
-      <c r="Y12" s="69">
-        <f t="shared" si="1"/>
-        <v>17.2</v>
-      </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="79">
-        <v>31</v>
-      </c>
-      <c r="AB12" s="70">
-        <f>(AA12/$AA$9)*100</f>
-        <v>62</v>
-      </c>
-      <c r="AC12" s="69">
+      <c r="H13" s="29"/>
+      <c r="I13" s="30">
         <f t="shared" si="2"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="117">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="118">
-        <f>COUNTIF(H11:H53,"1")</f>
-        <v>1</v>
-      </c>
-      <c r="AG12" s="119">
-        <f>AF12/$AF$24*100</f>
-        <v>2.3255813953488373</v>
-      </c>
-      <c r="AH12" s="39"/>
-    </row>
-    <row r="13" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="146">
-        <v>3</v>
-      </c>
-      <c r="C13" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="63">
-        <v>2020272703</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30">
-        <f t="shared" si="0"/>
         <v>71.23333333333332</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30" t="str">
-        <f>VLOOKUP(F13,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30" t="str">
+        <f>VLOOKUP($I13,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>3.00</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="66" t="str">
+      <c r="L13" s="29"/>
+      <c r="M13" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="31">
+      <c r="N13" s="29"/>
+      <c r="O13" s="31">
         <v>27</v>
       </c>
-      <c r="M13" s="31">
+      <c r="P13" s="31">
         <v>23</v>
       </c>
-      <c r="N13" s="77">
+      <c r="Q13" s="77">
         <v>96</v>
       </c>
-      <c r="O13" s="67">
+      <c r="R13" s="67">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="P13" s="78">
+      <c r="S13" s="78">
         <f t="shared" si="5"/>
         <v>48.666666666666664</v>
       </c>
-      <c r="Q13" s="69">
-        <f>P13*$Q$8</f>
+      <c r="T13" s="69">
+        <f>S13*$T$8</f>
         <v>24.333333333333332</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31">
+      <c r="U13" s="29"/>
+      <c r="V13" s="31">
         <v>73</v>
       </c>
-      <c r="T13" s="31">
+      <c r="W13" s="31">
         <v>97</v>
       </c>
-      <c r="U13" s="67">
-        <f>SUM(S13:T13)</f>
+      <c r="X13" s="67">
+        <f>SUM(V13:W13)</f>
         <v>170</v>
       </c>
-      <c r="V13" s="68">
-        <f t="shared" ref="V13:V53" si="6">(U13/2)*$V$9</f>
+      <c r="Y13" s="68">
+        <f t="shared" ref="Y13:Y53" si="7">(X13/2)*$Y$9</f>
         <v>8.5</v>
       </c>
-      <c r="W13" s="67">
+      <c r="Z13" s="67">
         <v>90</v>
       </c>
-      <c r="X13" s="70">
-        <f>W13*$X$9</f>
+      <c r="AA13" s="70">
+        <f>Z13*$AA$9</f>
         <v>9</v>
       </c>
-      <c r="Y13" s="69">
+      <c r="AB13" s="69">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="79">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="70">
+        <f>(AD13/$AD$9)*100</f>
+        <v>98</v>
+      </c>
+      <c r="AF13" s="69">
         <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="79">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="70">
-        <f>(AA13/$AA$9)*100</f>
-        <v>98</v>
-      </c>
-      <c r="AC13" s="69">
+        <v>29.4</v>
+      </c>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="36">
+        <v>1.25</v>
+      </c>
+      <c r="AI13" s="37">
+        <f>COUNTIF(K11:K53,"1.25")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="39"/>
+    </row>
+    <row r="14" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="104">
+        <v>4</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="63">
+        <v>2019375503</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
-        <v>29.4</v>
-      </c>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="36">
-        <v>1.25</v>
-      </c>
-      <c r="AF13" s="37">
-        <f>COUNTIF(H11:H53,"1.25")</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="38">
-        <f>AF13/$AF$24*100</f>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="39"/>
-    </row>
-    <row r="14" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="146">
-        <v>4</v>
-      </c>
-      <c r="C14" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="63">
-        <v>2019375503</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30">
-        <f t="shared" si="0"/>
         <v>81.416666666666657</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30" t="str">
-        <f>VLOOKUP(F14,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30" t="str">
+        <f>VLOOKUP($I14,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.25</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="66" t="str">
+      <c r="L14" s="29"/>
+      <c r="M14" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="31">
+      <c r="N14" s="29"/>
+      <c r="O14" s="31">
         <v>37</v>
       </c>
-      <c r="M14" s="31">
+      <c r="P14" s="31">
         <v>96</v>
       </c>
-      <c r="N14" s="77">
+      <c r="Q14" s="77">
         <v>90</v>
       </c>
-      <c r="O14" s="67">
+      <c r="R14" s="67">
         <f t="shared" si="4"/>
         <v>223</v>
       </c>
-      <c r="P14" s="78">
+      <c r="S14" s="78">
         <f t="shared" si="5"/>
         <v>74.333333333333329</v>
       </c>
-      <c r="Q14" s="69">
-        <f>P14*$Q$8</f>
+      <c r="T14" s="69">
+        <f>S14*$T$8</f>
         <v>37.166666666666664</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="31">
+      <c r="U14" s="29"/>
+      <c r="V14" s="31">
         <v>69</v>
       </c>
-      <c r="T14" s="31">
+      <c r="W14" s="31">
         <v>76</v>
       </c>
-      <c r="U14" s="67">
-        <f>SUM(S14:T14)</f>
+      <c r="X14" s="67">
+        <f>SUM(V14:W14)</f>
         <v>145</v>
       </c>
-      <c r="V14" s="68">
+      <c r="Y14" s="68">
+        <f t="shared" si="7"/>
+        <v>7.25</v>
+      </c>
+      <c r="Z14" s="67">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="70">
+        <f>Z14*$AA$9</f>
+        <v>10</v>
+      </c>
+      <c r="AB14" s="69">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="79">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="70">
+        <f>(AD14/$AD$9)*100</f>
+        <v>90</v>
+      </c>
+      <c r="AF14" s="69">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="AI14" s="37">
+        <f>COUNTIF($K$11:$K$53,"1.5")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="38">
         <f t="shared" si="6"/>
-        <v>7.25</v>
-      </c>
-      <c r="W14" s="67">
-        <v>100</v>
-      </c>
-      <c r="X14" s="70">
-        <f>W14*$X$9</f>
-        <v>10</v>
-      </c>
-      <c r="Y14" s="69">
-        <f t="shared" si="1"/>
-        <v>17.25</v>
-      </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="79">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="70">
-        <f>(AA14/$AA$9)*100</f>
-        <v>90</v>
-      </c>
-      <c r="AC14" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="39"/>
+    </row>
+    <row r="15" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="104">
+        <v>5</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="63">
+        <v>2020233120</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="AF14" s="37">
-        <f>COUNTIF($H$11:$H$53,"1.5")</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="38">
-        <f>AF14/$AF$24*100</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="39"/>
-    </row>
-    <row r="15" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="146">
-        <v>5</v>
-      </c>
-      <c r="C15" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="63">
-        <v>2020233120</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30">
-        <f t="shared" si="0"/>
         <v>74.466666666666669</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30" t="str">
-        <f>VLOOKUP(F15,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30" t="str">
+        <f>VLOOKUP($I15,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="66" t="str">
+      <c r="L15" s="29"/>
+      <c r="M15" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="31">
+      <c r="N15" s="29"/>
+      <c r="O15" s="31">
         <v>70</v>
       </c>
-      <c r="M15" s="31">
+      <c r="P15" s="31">
         <v>65</v>
       </c>
-      <c r="N15" s="31">
+      <c r="Q15" s="31">
         <v>100</v>
       </c>
-      <c r="O15" s="31">
-        <f>SUM(L15:N15)</f>
+      <c r="R15" s="31">
+        <f>SUM(O15:Q15)</f>
         <v>235</v>
       </c>
-      <c r="P15" s="32">
+      <c r="S15" s="32">
         <f t="shared" si="5"/>
         <v>78.333333333333329</v>
       </c>
-      <c r="Q15" s="33">
-        <f t="shared" ref="Q15:Q53" si="7">P15*$Q$8</f>
+      <c r="T15" s="33">
+        <f t="shared" ref="T15:T53" si="8">S15*$T$8</f>
         <v>39.166666666666664</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="31">
+      <c r="U15" s="29"/>
+      <c r="V15" s="31">
         <v>80</v>
       </c>
-      <c r="T15" s="31">
+      <c r="W15" s="31">
         <v>90</v>
       </c>
-      <c r="U15" s="31">
-        <f t="shared" ref="U15:U53" si="8">SUM(S15:T15)</f>
+      <c r="X15" s="31">
+        <f t="shared" ref="X15:X53" si="9">SUM(V15:W15)</f>
         <v>170</v>
       </c>
-      <c r="V15" s="68">
+      <c r="Y15" s="68">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>70</v>
+      </c>
+      <c r="AA15" s="34">
+        <f>Z15*$AA$9</f>
+        <v>7</v>
+      </c>
+      <c r="AB15" s="69">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="35">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="70">
+        <f t="shared" ref="AE15:AE53" si="10">(AD15/$AD$9)*100</f>
+        <v>66</v>
+      </c>
+      <c r="AF15" s="33">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="36">
+        <v>1.75</v>
+      </c>
+      <c r="AI15" s="37">
+        <f>COUNTIF($K$11:$K$53,"1.75")</f>
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="38">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="W15" s="31">
-        <v>70</v>
-      </c>
-      <c r="X15" s="34">
-        <f>W15*$X$9</f>
-        <v>7</v>
-      </c>
-      <c r="Y15" s="69">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="35">
-        <v>33</v>
-      </c>
-      <c r="AB15" s="70">
-        <f t="shared" ref="AB15:AB53" si="9">(AA15/$AA$9)*100</f>
-        <v>66</v>
-      </c>
-      <c r="AC15" s="33">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="36">
-        <v>1.75</v>
-      </c>
-      <c r="AF15" s="37">
-        <f>COUNTIF($H$11:$H$53,"1.75")</f>
-        <v>2</v>
-      </c>
-      <c r="AG15" s="38">
-        <f>AF15/$AF$24*100</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
+      <c r="AK15" s="39"/>
       <c r="AL15" s="40"/>
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
@@ -3055,113 +3119,118 @@
       <c r="CZ15" s="40"/>
       <c r="DA15" s="40"/>
       <c r="DB15" s="40"/>
+      <c r="DC15" s="40"/>
+      <c r="DD15" s="40"/>
+      <c r="DE15" s="40"/>
     </row>
-    <row r="16" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="146">
+      <c r="B16" s="104">
         <v>6</v>
       </c>
-      <c r="C16" s="146" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="63">
+      <c r="C16" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="63">
         <v>2017433750</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30">
-        <f t="shared" si="0"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30">
+        <f t="shared" si="2"/>
         <v>69.033333333333331</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30" t="str">
-        <f>VLOOKUP(F16,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30" t="str">
+        <f>VLOOKUP($I16,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="66" t="str">
+      <c r="L16" s="29"/>
+      <c r="M16" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="31">
+      <c r="N16" s="29"/>
+      <c r="O16" s="31">
         <v>20</v>
       </c>
-      <c r="M16" s="31">
+      <c r="P16" s="31">
         <v>98</v>
       </c>
-      <c r="N16" s="31">
+      <c r="Q16" s="31">
         <v>97</v>
       </c>
-      <c r="O16" s="31">
-        <f>SUM(L16:N16)</f>
+      <c r="R16" s="31">
+        <f>SUM(O16:Q16)</f>
         <v>215</v>
       </c>
-      <c r="P16" s="32">
+      <c r="S16" s="32">
         <f t="shared" si="5"/>
         <v>71.666666666666671</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="T16" s="33">
+        <f t="shared" si="8"/>
+        <v>35.833333333333336</v>
+      </c>
+      <c r="U16" s="29"/>
+      <c r="V16" s="31">
+        <v>93</v>
+      </c>
+      <c r="W16" s="31">
+        <v>71</v>
+      </c>
+      <c r="X16" s="31">
+        <f t="shared" si="9"/>
+        <v>164</v>
+      </c>
+      <c r="Y16" s="68">
         <f t="shared" si="7"/>
-        <v>35.833333333333336</v>
-      </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="31">
-        <v>93</v>
-      </c>
-      <c r="T16" s="31">
-        <v>71</v>
-      </c>
-      <c r="U16" s="31">
-        <f t="shared" si="8"/>
-        <v>164</v>
-      </c>
-      <c r="V16" s="68">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="Z16" s="31">
+        <v>70</v>
+      </c>
+      <c r="AA16" s="34">
+        <f t="shared" ref="AA16:AA53" si="11">Z16*$AA$9</f>
+        <v>7</v>
+      </c>
+      <c r="AB16" s="69">
+        <f t="shared" si="0"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="35">
+        <v>30</v>
+      </c>
+      <c r="AE16" s="70">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AF16" s="33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="36">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="37">
+        <f>COUNTIF($K$11:$K$53,"2")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="38">
         <f t="shared" si="6"/>
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="W16" s="31">
-        <v>70</v>
-      </c>
-      <c r="X16" s="34">
-        <f t="shared" ref="X16:X53" si="10">W16*$X$9</f>
-        <v>7</v>
-      </c>
-      <c r="Y16" s="69">
-        <f t="shared" si="1"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="35">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="70">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="AC16" s="33">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="36">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="37">
-        <f>COUNTIF($H$11:$H$53,"2")</f>
-        <v>3</v>
-      </c>
-      <c r="AG16" s="38">
-        <f>AF16/$AF$24*100</f>
         <v>6.9767441860465116</v>
       </c>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="40"/>
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
+      <c r="AO16"/>
       <c r="AP16" s="40"/>
       <c r="AQ16" s="40"/>
       <c r="AR16" s="40"/>
@@ -3227,209 +3296,219 @@
       <c r="CZ16" s="40"/>
       <c r="DA16" s="40"/>
       <c r="DB16" s="40"/>
+      <c r="DC16" s="40"/>
+      <c r="DD16" s="40"/>
+      <c r="DE16" s="40"/>
     </row>
-    <row r="17" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="146">
+      <c r="B17" s="104">
         <v>7</v>
       </c>
-      <c r="C17" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="63">
+      <c r="C17" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="63">
         <v>2020442628</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30">
-        <f t="shared" si="0"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30">
+        <f t="shared" si="2"/>
         <v>65.783333333333331</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="str">
-        <f>VLOOKUP(F17,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30" t="str">
+        <f>VLOOKUP($I17,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="66" t="str">
+      <c r="L17" s="29"/>
+      <c r="M17" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="31">
+      <c r="N17" s="29"/>
+      <c r="O17" s="31">
         <v>35</v>
       </c>
-      <c r="M17" s="31">
+      <c r="P17" s="31">
         <v>45</v>
       </c>
-      <c r="N17" s="31">
+      <c r="Q17" s="31">
         <v>99</v>
       </c>
-      <c r="O17" s="31">
-        <f>SUM(L17:N17)</f>
+      <c r="R17" s="31">
+        <f>SUM(O17:Q17)</f>
         <v>179</v>
       </c>
-      <c r="P17" s="32">
+      <c r="S17" s="32">
         <f t="shared" si="5"/>
         <v>59.666666666666664</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="T17" s="33">
+        <f t="shared" si="8"/>
+        <v>29.833333333333332</v>
+      </c>
+      <c r="U17" s="29"/>
+      <c r="V17" s="31">
+        <v>74</v>
+      </c>
+      <c r="W17" s="31">
+        <v>77</v>
+      </c>
+      <c r="X17" s="31">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+      <c r="Y17" s="68">
         <f t="shared" si="7"/>
-        <v>29.833333333333332</v>
-      </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="31">
-        <v>74</v>
-      </c>
-      <c r="T17" s="31">
-        <v>77</v>
-      </c>
-      <c r="U17" s="31">
-        <f t="shared" si="8"/>
-        <v>151</v>
-      </c>
-      <c r="V17" s="68">
+        <v>7.5500000000000007</v>
+      </c>
+      <c r="Z17" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA17" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB17" s="69">
+        <f t="shared" si="0"/>
+        <v>15.55</v>
+      </c>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="35">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="70">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="AF17" s="33">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="76">
+        <v>2.25</v>
+      </c>
+      <c r="AI17" s="37">
+        <f>COUNTIF($K$11:$K$53,"2.25")</f>
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="38">
         <f t="shared" si="6"/>
-        <v>7.5500000000000007</v>
-      </c>
-      <c r="W17" s="31">
-        <v>80</v>
-      </c>
-      <c r="X17" s="34">
-        <f t="shared" si="10"/>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="AK17" s="39"/>
+    </row>
+    <row r="18" spans="1:109" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="104">
         <v>8</v>
       </c>
-      <c r="Y17" s="69">
-        <f t="shared" si="1"/>
-        <v>15.55</v>
-      </c>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="35">
-        <v>34</v>
-      </c>
-      <c r="AB17" s="70">
-        <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="AC17" s="33">
+      <c r="C18" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="63">
+        <v>2017226139</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="76">
-        <v>2.25</v>
-      </c>
-      <c r="AF17" s="37">
-        <f>COUNTIF($H$11:$H$53,"2.25")</f>
-        <v>7</v>
-      </c>
-      <c r="AG17" s="38">
-        <f>AF17/$AF$24*100</f>
-        <v>16.279069767441861</v>
-      </c>
-      <c r="AH17" s="39"/>
-    </row>
-    <row r="18" spans="1:106" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="146">
-        <v>8</v>
-      </c>
-      <c r="C18" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="63">
-        <v>2017226139</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30">
-        <f t="shared" si="0"/>
         <v>72.033333333333331</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="str">
-        <f>VLOOKUP(F18,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30" t="str">
+        <f>VLOOKUP($I18,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>3.00</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="66" t="str">
+      <c r="L18" s="29"/>
+      <c r="M18" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="31">
+      <c r="N18" s="29"/>
+      <c r="O18" s="31">
         <v>33</v>
       </c>
-      <c r="M18" s="31">
+      <c r="P18" s="31">
         <v>68</v>
       </c>
-      <c r="N18" s="31">
+      <c r="Q18" s="31">
         <v>93</v>
       </c>
-      <c r="O18" s="31">
-        <f>SUM(L18:N18)</f>
+      <c r="R18" s="31">
+        <f>SUM(O18:Q18)</f>
         <v>194</v>
       </c>
-      <c r="P18" s="32">
+      <c r="S18" s="32">
         <f t="shared" si="5"/>
         <v>64.666666666666671</v>
       </c>
-      <c r="Q18" s="33">
-        <f t="shared" si="7"/>
+      <c r="T18" s="33">
+        <f t="shared" si="8"/>
         <v>32.333333333333336</v>
       </c>
-      <c r="R18" s="29"/>
-      <c r="S18" s="31">
+      <c r="U18" s="29"/>
+      <c r="V18" s="31">
         <v>62</v>
-      </c>
-      <c r="T18" s="31">
-        <v>100</v>
-      </c>
-      <c r="U18" s="31">
-        <f t="shared" si="8"/>
-        <v>162</v>
-      </c>
-      <c r="V18" s="68">
-        <f t="shared" si="6"/>
-        <v>8.1</v>
       </c>
       <c r="W18" s="31">
         <v>100</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18" s="31">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="Y18" s="68">
+        <f t="shared" si="7"/>
+        <v>8.1</v>
+      </c>
+      <c r="Z18" s="31">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB18" s="69">
+        <f t="shared" si="0"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="35">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="70">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y18" s="69">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="33">
         <f t="shared" si="1"/>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="35">
-        <v>36</v>
-      </c>
-      <c r="AB18" s="70">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="AC18" s="33">
-        <f t="shared" si="2"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="36">
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="36">
         <v>2.5</v>
       </c>
-      <c r="AF18" s="37">
-        <f>COUNTIF($H$11:$H$53,"2.5")</f>
+      <c r="AI18" s="37">
+        <f>COUNTIF($K$11:$K$53,"2.5")</f>
         <v>4</v>
       </c>
-      <c r="AG18" s="38">
-        <f>AF18/$AF$24*100</f>
+      <c r="AJ18" s="38">
+        <f t="shared" si="6"/>
         <v>9.3023255813953494</v>
       </c>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
+      <c r="AK18" s="39"/>
       <c r="AL18" s="40"/>
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
@@ -3499,509 +3578,534 @@
       <c r="CZ18" s="40"/>
       <c r="DA18" s="40"/>
       <c r="DB18" s="40"/>
+      <c r="DC18" s="40"/>
+      <c r="DD18" s="40"/>
+      <c r="DE18" s="40"/>
     </row>
-    <row r="19" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="146">
+      <c r="B19" s="104">
         <v>9</v>
       </c>
-      <c r="C19" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="63">
+      <c r="C19" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="63">
         <v>2018469557</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30">
-        <f t="shared" si="0"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30">
+        <f t="shared" si="2"/>
         <v>74.266666666666652</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30" t="str">
-        <f>VLOOKUP(F19,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30" t="str">
+        <f>VLOOKUP($I19,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="66" t="str">
+      <c r="L19" s="29"/>
+      <c r="M19" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31">
+      <c r="N19" s="29"/>
+      <c r="O19" s="31">
         <v>83</v>
       </c>
-      <c r="M19" s="31">
+      <c r="P19" s="31">
         <v>30</v>
       </c>
-      <c r="N19" s="31">
+      <c r="Q19" s="31">
         <v>98</v>
       </c>
-      <c r="O19" s="31">
-        <f t="shared" ref="O19:O53" si="11">SUM(L19:N19)</f>
+      <c r="R19" s="31">
+        <f t="shared" ref="R19:R53" si="12">SUM(O19:Q19)</f>
         <v>211</v>
       </c>
-      <c r="P19" s="32">
+      <c r="S19" s="32">
         <f t="shared" si="5"/>
         <v>70.333333333333329</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="T19" s="33">
+        <f t="shared" si="8"/>
+        <v>35.166666666666664</v>
+      </c>
+      <c r="U19" s="29"/>
+      <c r="V19" s="31">
+        <v>84</v>
+      </c>
+      <c r="W19" s="31">
+        <v>70</v>
+      </c>
+      <c r="X19" s="31">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="Y19" s="68">
         <f t="shared" si="7"/>
-        <v>35.166666666666664</v>
-      </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="31">
-        <v>84</v>
-      </c>
-      <c r="T19" s="31">
-        <v>70</v>
-      </c>
-      <c r="U19" s="31">
-        <f t="shared" si="8"/>
-        <v>154</v>
-      </c>
-      <c r="V19" s="68">
+        <v>7.7</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA19" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB19" s="69">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="35">
+        <v>39</v>
+      </c>
+      <c r="AE19" s="70">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="AF19" s="33">
+        <f t="shared" si="1"/>
+        <v>23.4</v>
+      </c>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="76">
+        <v>2.75</v>
+      </c>
+      <c r="AI19" s="37">
+        <f>COUNTIF($K$11:$K$53,"2.75")</f>
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="38">
         <f t="shared" si="6"/>
-        <v>7.7</v>
-      </c>
-      <c r="W19" s="31">
-        <v>80</v>
-      </c>
-      <c r="X19" s="34">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y19" s="69">
-        <f t="shared" si="1"/>
-        <v>15.7</v>
-      </c>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="35">
-        <v>39</v>
-      </c>
-      <c r="AB19" s="70">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="AC19" s="33">
+        <v>23.255813953488371</v>
+      </c>
+      <c r="AK19" s="39"/>
+    </row>
+    <row r="20" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="104">
+        <v>10</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="63">
+        <v>2020135579</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30">
         <f t="shared" si="2"/>
-        <v>23.4</v>
-      </c>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="76">
-        <v>2.75</v>
-      </c>
-      <c r="AF19" s="37">
-        <f>COUNTIF($H$11:$H$53,"2.75")</f>
-        <v>10</v>
-      </c>
-      <c r="AG19" s="38">
-        <f>AF19/$AF$24*100</f>
-        <v>23.255813953488371</v>
-      </c>
-      <c r="AH19" s="39"/>
-    </row>
-    <row r="20" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="146">
-        <v>10</v>
-      </c>
-      <c r="C20" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="63">
-        <v>2020135579</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30">
-        <f t="shared" si="0"/>
         <v>82.35</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30" t="str">
-        <f>VLOOKUP(F20,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30" t="str">
+        <f>VLOOKUP($I20,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.25</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="66" t="str">
+      <c r="L20" s="29"/>
+      <c r="M20" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="31">
+      <c r="N20" s="29"/>
+      <c r="O20" s="31">
         <v>55</v>
       </c>
-      <c r="M20" s="31">
+      <c r="P20" s="31">
         <v>84</v>
       </c>
-      <c r="N20" s="31">
+      <c r="Q20" s="31">
         <v>92</v>
       </c>
-      <c r="O20" s="31">
-        <f t="shared" si="11"/>
+      <c r="R20" s="31">
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
-      <c r="P20" s="32">
+      <c r="S20" s="32">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="T20" s="33">
+        <f t="shared" si="8"/>
+        <v>38.5</v>
+      </c>
+      <c r="U20" s="29"/>
+      <c r="V20" s="31">
+        <v>57</v>
+      </c>
+      <c r="W20" s="31">
+        <v>92</v>
+      </c>
+      <c r="X20" s="31">
+        <f t="shared" si="9"/>
+        <v>149</v>
+      </c>
+      <c r="Y20" s="68">
         <f t="shared" si="7"/>
-        <v>38.5</v>
-      </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="31">
-        <v>57</v>
-      </c>
-      <c r="T20" s="31">
-        <v>92</v>
-      </c>
-      <c r="U20" s="31">
-        <f t="shared" si="8"/>
-        <v>149</v>
-      </c>
-      <c r="V20" s="68">
+        <v>7.45</v>
+      </c>
+      <c r="Z20" s="31">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB20" s="69">
+        <f t="shared" si="0"/>
+        <v>17.45</v>
+      </c>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="35">
+        <v>44</v>
+      </c>
+      <c r="AE20" s="70">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="AF20" s="33">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
+      </c>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="36">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="37">
+        <f>COUNTIF($K$11:$K$53,"3")</f>
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="38">
         <f t="shared" si="6"/>
-        <v>7.45</v>
-      </c>
-      <c r="W20" s="31">
-        <v>100</v>
-      </c>
-      <c r="X20" s="34">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y20" s="69">
-        <f t="shared" si="1"/>
-        <v>17.45</v>
-      </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="35">
-        <v>44</v>
-      </c>
-      <c r="AB20" s="70">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="AC20" s="33">
+        <v>11.627906976744185</v>
+      </c>
+      <c r="AK20" s="39"/>
+    </row>
+    <row r="21" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="104">
+        <v>11</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="63">
+        <v>2021476778</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
-        <v>26.4</v>
-      </c>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="36">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="37">
-        <f>COUNTIF($H$11:$H$53,"3")</f>
-        <v>5</v>
-      </c>
-      <c r="AG20" s="38">
-        <f>AF20/$AF$24*100</f>
-        <v>11.627906976744185</v>
-      </c>
-      <c r="AH20" s="39"/>
-    </row>
-    <row r="21" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="146">
-        <v>11</v>
-      </c>
-      <c r="C21" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="63">
-        <v>2021476778</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30">
-        <f t="shared" si="0"/>
         <v>85.3</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30" t="str">
-        <f>VLOOKUP(F21,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30" t="str">
+        <f>VLOOKUP($I21,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.00</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="66" t="str">
+      <c r="L21" s="29"/>
+      <c r="M21" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="31">
+      <c r="N21" s="29"/>
+      <c r="O21" s="31">
         <v>66</v>
       </c>
-      <c r="M21" s="31">
+      <c r="P21" s="31">
         <v>93</v>
       </c>
-      <c r="N21" s="31">
+      <c r="Q21" s="31">
         <v>93</v>
       </c>
-      <c r="O21" s="31">
-        <f t="shared" si="11"/>
+      <c r="R21" s="31">
+        <f t="shared" si="12"/>
         <v>252</v>
       </c>
-      <c r="P21" s="32">
+      <c r="S21" s="32">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="T21" s="33">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="U21" s="29"/>
+      <c r="V21" s="31">
+        <v>91</v>
+      </c>
+      <c r="W21" s="31">
+        <v>75</v>
+      </c>
+      <c r="X21" s="31">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="Y21" s="68">
         <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="R21" s="29"/>
-      <c r="S21" s="31">
-        <v>91</v>
-      </c>
-      <c r="T21" s="31">
-        <v>75</v>
-      </c>
-      <c r="U21" s="31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA21" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB21" s="69">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="35">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="70">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="AF21" s="33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="76">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="37">
+        <f>COUNTIF($K$11:$K$53,"5")</f>
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="38">
+        <f t="shared" si="6"/>
+        <v>23.255813953488371</v>
+      </c>
+      <c r="AK21" s="39"/>
+    </row>
+    <row r="22" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="104">
+        <v>12</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="63">
+        <v>2018434630</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30" t="str">
+        <f>VLOOKUP($I22,Transmutation!$A$2:$D$12,3,TRUE)</f>
+        <v>8.00</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>Dropped</v>
+      </c>
+      <c r="N22" s="29"/>
+      <c r="O22" s="31">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>0</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="33">
         <f t="shared" si="8"/>
-        <v>166</v>
-      </c>
-      <c r="V21" s="68">
-        <f t="shared" si="6"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W21" s="31">
-        <v>80</v>
-      </c>
-      <c r="X21" s="34">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y21" s="69">
-        <f t="shared" si="1"/>
-        <v>16.3</v>
-      </c>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="35">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="70">
+        <v>0</v>
+      </c>
+      <c r="U22" s="29"/>
+      <c r="V22" s="31">
+        <v>0</v>
+      </c>
+      <c r="W22" s="31">
+        <v>0</v>
+      </c>
+      <c r="X22" s="31">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="AC21" s="33">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="76">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="37">
-        <f>COUNTIF($H$11:$H$53,"5")</f>
-        <v>10</v>
-      </c>
-      <c r="AG21" s="38">
-        <f>AF21/$AF$24*100</f>
-        <v>23.255813953488371</v>
-      </c>
-      <c r="AH21" s="39"/>
-    </row>
-    <row r="22" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="146">
-        <v>12</v>
-      </c>
-      <c r="C22" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="63">
-        <v>2018434630</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30" t="str">
-        <f>VLOOKUP(F22,Transmutation!$A$2:$D$12,3,TRUE)</f>
-        <v>8.00</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="66" t="str">
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="36">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="37">
+        <f>COUNTIF($K$11:$K$53,"8")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="38">
+        <f t="shared" si="6"/>
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="AK22" s="39"/>
+    </row>
+    <row r="23" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="104">
+        <v>13</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="63">
+        <v>2022437926</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30">
+        <f t="shared" si="2"/>
+        <v>80.650000000000006</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30" t="str">
+        <f>VLOOKUP($I23,Transmutation!$A$2:$D$12,3,TRUE)</f>
+        <v>2.25</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="66" t="str">
         <f t="shared" si="3"/>
-        <v>Dropped</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="31">
+        <v>Passed</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="31">
+        <v>100</v>
+      </c>
+      <c r="P23" s="31">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>90</v>
+      </c>
+      <c r="R23" s="31">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+      <c r="S23" s="32">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="T23" s="33">
+        <f t="shared" si="8"/>
+        <v>35.5</v>
+      </c>
+      <c r="U23" s="29"/>
+      <c r="V23" s="31">
+        <v>54</v>
+      </c>
+      <c r="W23" s="31">
+        <v>85</v>
+      </c>
+      <c r="X23" s="31">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+      <c r="Y23" s="68">
+        <f t="shared" si="7"/>
+        <v>6.95</v>
+      </c>
+      <c r="Z23" s="31">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB23" s="69">
+        <f t="shared" si="0"/>
+        <v>16.95</v>
+      </c>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="35">
+        <v>47</v>
+      </c>
+      <c r="AE23" s="70">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="AF23" s="33">
+        <f t="shared" si="1"/>
+        <v>28.2</v>
+      </c>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="42">
+        <v>9</v>
+      </c>
+      <c r="AI23" s="43">
+        <f>COUNTIF($K$11:$K$53,"9")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="31">
-        <v>0</v>
-      </c>
-      <c r="N22" s="31">
-        <v>0</v>
-      </c>
-      <c r="O22" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="31">
-        <v>0</v>
-      </c>
-      <c r="T22" s="31">
-        <v>0</v>
-      </c>
-      <c r="U22" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="68">
+      <c r="AJ23" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="31">
-        <v>0</v>
-      </c>
-      <c r="X22" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="36">
-        <v>8</v>
-      </c>
-      <c r="AF22" s="37">
-        <f>COUNTIF($H$11:$H$53,"8")</f>
-        <v>1</v>
-      </c>
-      <c r="AG22" s="38">
-        <f>AF22/$AF$24*100</f>
-        <v>2.3255813953488373</v>
-      </c>
-      <c r="AH22" s="39"/>
-    </row>
-    <row r="23" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="146">
-        <v>13</v>
-      </c>
-      <c r="C23" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="63">
-        <v>2022437926</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30">
-        <f t="shared" si="0"/>
-        <v>80.650000000000006</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30" t="str">
-        <f>VLOOKUP(F23,Transmutation!$A$2:$D$12,3,TRUE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>Passed</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="31">
-        <v>100</v>
-      </c>
-      <c r="M23" s="31">
-        <v>23</v>
-      </c>
-      <c r="N23" s="31">
-        <v>90</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" si="11"/>
-        <v>213</v>
-      </c>
-      <c r="P23" s="32">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="Q23" s="33">
-        <f t="shared" si="7"/>
-        <v>35.5</v>
-      </c>
-      <c r="R23" s="29"/>
-      <c r="S23" s="31">
-        <v>54</v>
-      </c>
-      <c r="T23" s="31">
-        <v>85</v>
-      </c>
-      <c r="U23" s="31">
-        <f t="shared" si="8"/>
-        <v>139</v>
-      </c>
-      <c r="V23" s="68">
-        <f t="shared" si="6"/>
-        <v>6.95</v>
-      </c>
-      <c r="W23" s="31">
-        <v>100</v>
-      </c>
-      <c r="X23" s="34">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y23" s="69">
-        <f t="shared" si="1"/>
-        <v>16.95</v>
-      </c>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="35">
-        <v>47</v>
-      </c>
-      <c r="AB23" s="70">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="AC23" s="33">
-        <f t="shared" si="2"/>
-        <v>28.2</v>
-      </c>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="42">
-        <v>9</v>
-      </c>
-      <c r="AF23" s="43">
-        <f>COUNTIF($H$11:$H$53,"9")</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="44">
-        <f>AF23/$AF$24*100</f>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
+      <c r="AK23" s="39"/>
       <c r="AL23" s="40"/>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
@@ -4071,772 +4175,812 @@
       <c r="CZ23" s="40"/>
       <c r="DA23" s="40"/>
       <c r="DB23" s="40"/>
+      <c r="DC23" s="40"/>
+      <c r="DD23" s="40"/>
+      <c r="DE23" s="40"/>
     </row>
-    <row r="24" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="146">
+      <c r="B24" s="104">
         <v>14</v>
       </c>
-      <c r="C24" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="63">
+      <c r="C24" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="63">
         <v>2017382276</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30">
-        <f t="shared" si="0"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30">
+        <f t="shared" si="2"/>
         <v>68.416666666666671</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="str">
-        <f>VLOOKUP(F24,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30" t="str">
+        <f>VLOOKUP($I24,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="66" t="str">
+      <c r="L24" s="29"/>
+      <c r="M24" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="31">
+      <c r="N24" s="29"/>
+      <c r="O24" s="31">
         <v>60</v>
       </c>
-      <c r="M24" s="31">
+      <c r="P24" s="31">
         <v>45</v>
       </c>
-      <c r="N24" s="31">
+      <c r="Q24" s="31">
         <v>97</v>
       </c>
-      <c r="O24" s="31">
-        <f t="shared" si="11"/>
+      <c r="R24" s="31">
+        <f t="shared" si="12"/>
         <v>202</v>
       </c>
-      <c r="P24" s="32">
+      <c r="S24" s="32">
         <f t="shared" si="5"/>
         <v>67.333333333333329</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="T24" s="33">
+        <f t="shared" si="8"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="U24" s="29"/>
+      <c r="V24" s="31">
+        <v>99</v>
+      </c>
+      <c r="W24" s="31">
+        <v>72</v>
+      </c>
+      <c r="X24" s="31">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="Y24" s="68">
         <f t="shared" si="7"/>
-        <v>33.666666666666664</v>
-      </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="31">
-        <v>99</v>
-      </c>
-      <c r="T24" s="31">
-        <v>72</v>
-      </c>
-      <c r="U24" s="31">
-        <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="V24" s="68">
-        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="W24" s="31">
+      <c r="Z24" s="31">
         <v>70</v>
       </c>
-      <c r="X24" s="34">
+      <c r="AA24" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB24" s="69">
+        <f t="shared" si="0"/>
+        <v>15.55</v>
+      </c>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="35">
+        <v>32</v>
+      </c>
+      <c r="AE24" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y24" s="69">
+        <v>64</v>
+      </c>
+      <c r="AF24" s="33">
         <f t="shared" si="1"/>
-        <v>15.55</v>
-      </c>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="35">
-        <v>32</v>
-      </c>
-      <c r="AB24" s="70">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="AC24" s="33">
+        <v>19.2</v>
+      </c>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI24" s="45">
+        <f>SUM(AI12:AI23)</f>
+        <v>43</v>
+      </c>
+      <c r="AJ24" s="46">
+        <f>SUM(AJ12:AJ23)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="AK24" s="39"/>
+    </row>
+    <row r="25" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="104">
+        <v>15</v>
+      </c>
+      <c r="C25" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="63">
+        <v>2019392815</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30">
         <f t="shared" si="2"/>
-        <v>19.2</v>
-      </c>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF24" s="45">
-        <f>SUM(AF12:AF23)</f>
-        <v>43</v>
-      </c>
-      <c r="AG24" s="46">
-        <f>SUM(AG12:AG23)</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="AH24" s="39"/>
-    </row>
-    <row r="25" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="146">
-        <v>15</v>
-      </c>
-      <c r="C25" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="63">
-        <v>2019392815</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30">
-        <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="str">
-        <f>VLOOKUP(F25,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30" t="str">
+        <f>VLOOKUP($I25,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.25</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="66" t="str">
+      <c r="L25" s="29"/>
+      <c r="M25" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="31">
+      <c r="N25" s="29"/>
+      <c r="O25" s="31">
         <v>69</v>
       </c>
-      <c r="M25" s="31">
+      <c r="P25" s="31">
         <v>44</v>
       </c>
-      <c r="N25" s="31">
+      <c r="Q25" s="31">
         <v>97</v>
       </c>
-      <c r="O25" s="31">
-        <f t="shared" si="11"/>
+      <c r="R25" s="31">
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
-      <c r="P25" s="32">
+      <c r="S25" s="32">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="T25" s="33">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="U25" s="29"/>
+      <c r="V25" s="31">
+        <v>96</v>
+      </c>
+      <c r="W25" s="31">
+        <v>99</v>
+      </c>
+      <c r="X25" s="31">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
+      <c r="Y25" s="68">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="31">
-        <v>96</v>
-      </c>
-      <c r="T25" s="31">
-        <v>99</v>
-      </c>
-      <c r="U25" s="31">
-        <f t="shared" si="8"/>
-        <v>195</v>
-      </c>
-      <c r="V25" s="68">
-        <f t="shared" si="6"/>
         <v>9.75</v>
       </c>
-      <c r="W25" s="31">
+      <c r="Z25" s="31">
         <v>80</v>
       </c>
-      <c r="X25" s="34">
+      <c r="AA25" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB25" s="69">
+        <f t="shared" si="0"/>
+        <v>17.75</v>
+      </c>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="35">
+        <v>50</v>
+      </c>
+      <c r="AE25" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y25" s="69">
+        <v>100</v>
+      </c>
+      <c r="AF25" s="33">
         <f t="shared" si="1"/>
-        <v>17.75</v>
-      </c>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="35">
-        <v>50</v>
-      </c>
-      <c r="AB25" s="70">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="AC25" s="33">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="29"/>
+      <c r="AK25" s="39"/>
+    </row>
+    <row r="26" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="104">
+        <v>16</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="63">
+        <v>2021330048</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AD25" s="29"/>
-      <c r="AH25" s="39"/>
-    </row>
-    <row r="26" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="146">
-        <v>16</v>
-      </c>
-      <c r="C26" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="63">
-        <v>2021330048</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30">
-        <f t="shared" si="0"/>
         <v>66.8</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30" t="str">
-        <f>VLOOKUP(F26,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30" t="str">
+        <f>VLOOKUP($I26,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="66" t="str">
+      <c r="L26" s="29"/>
+      <c r="M26" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="31">
+      <c r="N26" s="29"/>
+      <c r="O26" s="31">
         <v>26</v>
       </c>
-      <c r="M26" s="31">
+      <c r="P26" s="31">
         <v>40</v>
       </c>
-      <c r="N26" s="31">
+      <c r="Q26" s="31">
         <v>93</v>
       </c>
-      <c r="O26" s="31">
-        <f t="shared" si="11"/>
+      <c r="R26" s="31">
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
-      <c r="P26" s="32">
+      <c r="S26" s="32">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="T26" s="33">
+        <f t="shared" si="8"/>
+        <v>26.5</v>
+      </c>
+      <c r="U26" s="29"/>
+      <c r="V26" s="31">
+        <v>78</v>
+      </c>
+      <c r="W26" s="31">
+        <v>80</v>
+      </c>
+      <c r="X26" s="31">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="Y26" s="68">
         <f t="shared" si="7"/>
-        <v>26.5</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="31">
+        <v>7.9</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>90</v>
+      </c>
+      <c r="AA26" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB26" s="69">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="35">
+        <v>39</v>
+      </c>
+      <c r="AE26" s="70">
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="T26" s="31">
-        <v>80</v>
-      </c>
-      <c r="U26" s="31">
-        <f t="shared" si="8"/>
-        <v>158</v>
-      </c>
-      <c r="V26" s="68">
-        <f t="shared" si="6"/>
-        <v>7.9</v>
-      </c>
-      <c r="W26" s="31">
-        <v>90</v>
-      </c>
-      <c r="X26" s="34">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y26" s="69">
+      <c r="AF26" s="33">
         <f t="shared" si="1"/>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="35">
-        <v>39</v>
-      </c>
-      <c r="AB26" s="70">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="AC26" s="33">
+        <v>23.4</v>
+      </c>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI26" s="114"/>
+      <c r="AJ26" s="115"/>
+      <c r="AK26" s="39"/>
+    </row>
+    <row r="27" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="104">
+        <v>17</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="63">
+        <v>2020461771</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30">
         <f t="shared" si="2"/>
-        <v>23.4</v>
-      </c>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="155"/>
-      <c r="AH26" s="39"/>
-    </row>
-    <row r="27" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="146">
-        <v>17</v>
-      </c>
-      <c r="C27" s="146" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="63">
-        <v>2020461771</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30">
-        <f t="shared" si="0"/>
         <v>72.349999999999994</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30" t="str">
-        <f>VLOOKUP(F27,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30" t="str">
+        <f>VLOOKUP($I27,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>3.00</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="66" t="str">
+      <c r="L27" s="29"/>
+      <c r="M27" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="31">
+      <c r="N27" s="29"/>
+      <c r="O27" s="31">
         <v>58</v>
       </c>
-      <c r="M27" s="31">
+      <c r="P27" s="31">
         <v>26</v>
       </c>
-      <c r="N27" s="31">
+      <c r="Q27" s="31">
         <v>99</v>
       </c>
-      <c r="O27" s="31">
-        <f t="shared" si="11"/>
+      <c r="R27" s="31">
+        <f t="shared" si="12"/>
         <v>183</v>
       </c>
-      <c r="P27" s="32">
+      <c r="S27" s="32">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="T27" s="33">
+        <f t="shared" si="8"/>
+        <v>30.5</v>
+      </c>
+      <c r="U27" s="29"/>
+      <c r="V27" s="31">
+        <v>83</v>
+      </c>
+      <c r="W27" s="31">
+        <v>86</v>
+      </c>
+      <c r="X27" s="31">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+      <c r="Y27" s="68">
         <f t="shared" si="7"/>
-        <v>30.5</v>
-      </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="31">
-        <v>83</v>
-      </c>
-      <c r="T27" s="31">
-        <v>86</v>
-      </c>
-      <c r="U27" s="31">
-        <f t="shared" si="8"/>
-        <v>169</v>
-      </c>
-      <c r="V27" s="68">
-        <f t="shared" si="6"/>
         <v>8.4500000000000011</v>
       </c>
-      <c r="W27" s="31">
+      <c r="Z27" s="31">
         <v>70</v>
       </c>
-      <c r="X27" s="34">
+      <c r="AA27" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB27" s="69">
+        <f t="shared" si="0"/>
+        <v>15.450000000000001</v>
+      </c>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="35">
+        <v>44</v>
+      </c>
+      <c r="AE27" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y27" s="69">
+        <v>88</v>
+      </c>
+      <c r="AF27" s="33">
         <f t="shared" si="1"/>
-        <v>15.450000000000001</v>
-      </c>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="35">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="70">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="AC27" s="33">
+        <v>26.4</v>
+      </c>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK27" s="39"/>
+    </row>
+    <row r="28" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="104">
+        <v>18</v>
+      </c>
+      <c r="C28" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="63">
+        <v>2018271851</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30">
         <f t="shared" si="2"/>
-        <v>26.4</v>
-      </c>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF27" s="142"/>
-      <c r="AG27" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH27" s="39"/>
-    </row>
-    <row r="28" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="146">
-        <v>18</v>
-      </c>
-      <c r="C28" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="63">
-        <v>2018271851</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30">
-        <f t="shared" si="0"/>
         <v>83.566666666666663</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30" t="str">
-        <f>VLOOKUP(F28,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30" t="str">
+        <f>VLOOKUP($I28,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.00</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="66" t="str">
+      <c r="L28" s="29"/>
+      <c r="M28" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="31">
+      <c r="N28" s="29"/>
+      <c r="O28" s="31">
         <v>92</v>
       </c>
-      <c r="M28" s="31">
+      <c r="P28" s="31">
         <v>55</v>
       </c>
-      <c r="N28" s="31">
+      <c r="Q28" s="31">
         <v>100</v>
       </c>
-      <c r="O28" s="31">
-        <f t="shared" si="11"/>
+      <c r="R28" s="31">
+        <f t="shared" si="12"/>
         <v>247</v>
       </c>
-      <c r="P28" s="32">
+      <c r="S28" s="32">
         <f t="shared" si="5"/>
         <v>82.333333333333329</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="T28" s="33">
+        <f t="shared" si="8"/>
+        <v>41.166666666666664</v>
+      </c>
+      <c r="U28" s="29"/>
+      <c r="V28" s="31">
+        <v>86</v>
+      </c>
+      <c r="W28" s="31">
+        <v>98</v>
+      </c>
+      <c r="X28" s="31">
+        <f t="shared" si="9"/>
+        <v>184</v>
+      </c>
+      <c r="Y28" s="68">
         <f t="shared" si="7"/>
-        <v>41.166666666666664</v>
-      </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="31">
-        <v>86</v>
-      </c>
-      <c r="T28" s="31">
-        <v>98</v>
-      </c>
-      <c r="U28" s="31">
-        <f t="shared" si="8"/>
-        <v>184</v>
-      </c>
-      <c r="V28" s="68">
-        <f t="shared" si="6"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="W28" s="31">
+      <c r="Z28" s="31">
         <v>80</v>
       </c>
-      <c r="X28" s="34">
+      <c r="AA28" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB28" s="69">
+        <f t="shared" si="0"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="35">
+        <v>42</v>
+      </c>
+      <c r="AE28" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y28" s="69">
+        <v>84</v>
+      </c>
+      <c r="AF28" s="33">
         <f t="shared" si="1"/>
-        <v>17.200000000000003</v>
-      </c>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="35">
-        <v>42</v>
-      </c>
-      <c r="AB28" s="70">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="AC28" s="33">
+        <v>25.2</v>
+      </c>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK28" s="39"/>
+    </row>
+    <row r="29" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="104">
+        <v>19</v>
+      </c>
+      <c r="C29" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="63">
+        <v>2022348686</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30">
         <f t="shared" si="2"/>
-        <v>25.2</v>
-      </c>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF28" s="142"/>
-      <c r="AG28" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH28" s="39"/>
-    </row>
-    <row r="29" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="146">
-        <v>19</v>
-      </c>
-      <c r="C29" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="63">
-        <v>2022348686</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30">
-        <f t="shared" si="0"/>
         <v>89.066666666666663</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30" t="str">
-        <f>VLOOKUP(F29,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30" t="str">
+        <f>VLOOKUP($I29,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>1.75</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="66" t="str">
+      <c r="L29" s="29"/>
+      <c r="M29" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="31">
+      <c r="N29" s="29"/>
+      <c r="O29" s="31">
         <v>88</v>
       </c>
-      <c r="M29" s="31">
+      <c r="P29" s="31">
         <v>81</v>
       </c>
-      <c r="N29" s="31">
+      <c r="Q29" s="31">
         <v>93</v>
       </c>
-      <c r="O29" s="31">
-        <f t="shared" si="11"/>
+      <c r="R29" s="31">
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
-      <c r="P29" s="32">
+      <c r="S29" s="32">
         <f t="shared" si="5"/>
         <v>87.333333333333329</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="T29" s="33">
+        <f t="shared" si="8"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="U29" s="29"/>
+      <c r="V29" s="31">
+        <v>70</v>
+      </c>
+      <c r="W29" s="31">
+        <v>98</v>
+      </c>
+      <c r="X29" s="31">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="Y29" s="68">
         <f t="shared" si="7"/>
-        <v>43.666666666666664</v>
-      </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="Z29" s="31">
         <v>70</v>
       </c>
-      <c r="T29" s="31">
-        <v>98</v>
-      </c>
-      <c r="U29" s="31">
-        <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="V29" s="68">
-        <f t="shared" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="W29" s="31">
-        <v>70</v>
-      </c>
-      <c r="X29" s="34">
+      <c r="AA29" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB29" s="69">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="35">
+        <v>50</v>
+      </c>
+      <c r="AE29" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y29" s="69">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="33">
         <f t="shared" si="1"/>
-        <v>15.4</v>
-      </c>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="35">
-        <v>50</v>
-      </c>
-      <c r="AB29" s="70">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="AC29" s="33">
+        <v>30</v>
+      </c>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK29" s="39"/>
+    </row>
+    <row r="30" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="104">
+        <v>20</v>
+      </c>
+      <c r="C30" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="63">
+        <v>2022249543</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF29" s="142"/>
-      <c r="AG29" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH29" s="39"/>
-    </row>
-    <row r="30" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="146">
-        <v>20</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="63">
-        <v>2022249543</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30">
-        <f t="shared" si="0"/>
         <v>85.483333333333334</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30" t="str">
-        <f>VLOOKUP(F30,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30" t="str">
+        <f>VLOOKUP($I30,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.00</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="66" t="str">
+      <c r="L30" s="29"/>
+      <c r="M30" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="31">
+      <c r="N30" s="29"/>
+      <c r="O30" s="31">
         <v>83</v>
       </c>
-      <c r="M30" s="31">
+      <c r="P30" s="31">
         <v>63</v>
       </c>
-      <c r="N30" s="31">
+      <c r="Q30" s="31">
         <v>93</v>
       </c>
-      <c r="O30" s="31">
-        <f t="shared" si="11"/>
+      <c r="R30" s="31">
+        <f t="shared" si="12"/>
         <v>239</v>
       </c>
-      <c r="P30" s="32">
+      <c r="S30" s="32">
         <f t="shared" si="5"/>
         <v>79.666666666666671</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="T30" s="33">
+        <f t="shared" si="8"/>
+        <v>39.833333333333336</v>
+      </c>
+      <c r="U30" s="29"/>
+      <c r="V30" s="31">
+        <v>77</v>
+      </c>
+      <c r="W30" s="31">
+        <v>100</v>
+      </c>
+      <c r="X30" s="31">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="Y30" s="68">
         <f t="shared" si="7"/>
-        <v>39.833333333333336</v>
-      </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="31">
-        <v>77</v>
-      </c>
-      <c r="T30" s="31">
-        <v>100</v>
-      </c>
-      <c r="U30" s="31">
-        <f t="shared" si="8"/>
-        <v>177</v>
-      </c>
-      <c r="V30" s="68">
-        <f t="shared" si="6"/>
         <v>8.85</v>
       </c>
-      <c r="W30" s="31">
+      <c r="Z30" s="31">
         <v>80</v>
       </c>
-      <c r="X30" s="34">
+      <c r="AA30" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB30" s="69">
+        <f t="shared" si="0"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="35">
+        <v>48</v>
+      </c>
+      <c r="AE30" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y30" s="69">
+        <v>96</v>
+      </c>
+      <c r="AF30" s="33">
         <f t="shared" si="1"/>
-        <v>16.850000000000001</v>
-      </c>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="35">
-        <v>48</v>
-      </c>
-      <c r="AB30" s="70">
-        <f t="shared" si="9"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK30" s="39"/>
+    </row>
+    <row r="31" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="104">
+        <v>21</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="63">
+        <v>2018460877</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="AC30" s="33">
+      <c r="H31" s="29"/>
+      <c r="I31" s="30">
         <f t="shared" si="2"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF30" s="142"/>
-      <c r="AG30" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH30" s="39"/>
-    </row>
-    <row r="31" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="146">
-        <v>21</v>
-      </c>
-      <c r="C31" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="63">
-        <v>2018460877</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30">
-        <f t="shared" si="0"/>
         <v>75.483333333333334</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30" t="str">
-        <f>VLOOKUP(F31,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30" t="str">
+        <f>VLOOKUP($I31,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="66" t="str">
+      <c r="L31" s="29"/>
+      <c r="M31" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="31">
+      <c r="N31" s="29"/>
+      <c r="O31" s="31">
         <v>60</v>
       </c>
-      <c r="M31" s="31">
+      <c r="P31" s="31">
         <v>76</v>
       </c>
-      <c r="N31" s="31">
+      <c r="Q31" s="31">
         <v>100</v>
       </c>
-      <c r="O31" s="31">
-        <f t="shared" si="11"/>
+      <c r="R31" s="31">
+        <f t="shared" si="12"/>
         <v>236</v>
       </c>
-      <c r="P31" s="32">
+      <c r="S31" s="32">
         <f t="shared" si="5"/>
         <v>78.666666666666671</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="T31" s="33">
+        <f t="shared" si="8"/>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="U31" s="29"/>
+      <c r="V31" s="31">
+        <v>57</v>
+      </c>
+      <c r="W31" s="31">
+        <v>86</v>
+      </c>
+      <c r="X31" s="31">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="Y31" s="68">
         <f t="shared" si="7"/>
-        <v>39.333333333333336</v>
-      </c>
-      <c r="R31" s="29"/>
-      <c r="S31" s="31">
-        <v>57</v>
-      </c>
-      <c r="T31" s="31">
-        <v>86</v>
-      </c>
-      <c r="U31" s="31">
-        <f t="shared" si="8"/>
-        <v>143</v>
-      </c>
-      <c r="V31" s="68">
-        <f t="shared" si="6"/>
         <v>7.15</v>
       </c>
-      <c r="W31" s="31">
+      <c r="Z31" s="31">
         <v>80</v>
       </c>
-      <c r="X31" s="34">
+      <c r="AA31" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB31" s="69">
+        <f t="shared" si="0"/>
+        <v>15.15</v>
+      </c>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="35">
+        <v>35</v>
+      </c>
+      <c r="AE31" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y31" s="69">
+        <v>70</v>
+      </c>
+      <c r="AF31" s="33">
         <f t="shared" si="1"/>
-        <v>15.15</v>
-      </c>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="35">
-        <v>35</v>
-      </c>
-      <c r="AB31" s="70">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="AC31" s="33">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF31" s="142"/>
-      <c r="AG31" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK31" s="39"/>
       <c r="AL31" s="40"/>
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
@@ -4906,297 +5050,312 @@
       <c r="CZ31" s="40"/>
       <c r="DA31" s="40"/>
       <c r="DB31" s="40"/>
+      <c r="DC31" s="40"/>
+      <c r="DD31" s="40"/>
+      <c r="DE31" s="40"/>
     </row>
-    <row r="32" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="146">
+      <c r="B32" s="104">
         <v>22</v>
       </c>
-      <c r="C32" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="63">
+      <c r="C32" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="63">
         <v>2022398577</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30">
-        <f t="shared" si="0"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30">
+        <f t="shared" si="2"/>
         <v>74.166666666666657</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30" t="str">
-        <f>VLOOKUP(F32,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30" t="str">
+        <f>VLOOKUP($I32,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="66" t="str">
+      <c r="L32" s="29"/>
+      <c r="M32" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="31">
+      <c r="N32" s="29"/>
+      <c r="O32" s="31">
         <v>82</v>
       </c>
-      <c r="M32" s="31">
+      <c r="P32" s="31">
         <v>66</v>
       </c>
-      <c r="N32" s="31">
+      <c r="Q32" s="31">
         <v>96</v>
       </c>
-      <c r="O32" s="31">
-        <f t="shared" si="11"/>
+      <c r="R32" s="31">
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
-      <c r="P32" s="32">
+      <c r="S32" s="32">
         <f t="shared" si="5"/>
         <v>81.333333333333329</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="T32" s="33">
+        <f t="shared" si="8"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="U32" s="29"/>
+      <c r="V32" s="31">
+        <v>71</v>
+      </c>
+      <c r="W32" s="31">
+        <v>87</v>
+      </c>
+      <c r="X32" s="31">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="Y32" s="68">
         <f t="shared" si="7"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="R32" s="29"/>
-      <c r="S32" s="31">
-        <v>71</v>
-      </c>
-      <c r="T32" s="31">
-        <v>87</v>
-      </c>
-      <c r="U32" s="31">
-        <f t="shared" si="8"/>
-        <v>158</v>
-      </c>
-      <c r="V32" s="68">
-        <f t="shared" si="6"/>
         <v>7.9</v>
       </c>
-      <c r="W32" s="31">
+      <c r="Z32" s="31">
         <v>70</v>
       </c>
-      <c r="X32" s="34">
+      <c r="AA32" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB32" s="69">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="35">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y32" s="69">
+        <v>62</v>
+      </c>
+      <c r="AF32" s="33">
         <f t="shared" si="1"/>
-        <v>14.9</v>
-      </c>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="35">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="70">
-        <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
-      <c r="AC32" s="33">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK32" s="39"/>
+    </row>
+    <row r="33" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="104">
+        <v>23</v>
+      </c>
+      <c r="C33" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="63">
+        <v>2019211230</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30">
         <f t="shared" si="2"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF32" s="142"/>
-      <c r="AG32" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH32" s="39"/>
-    </row>
-    <row r="33" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="146">
-        <v>23</v>
-      </c>
-      <c r="C33" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="63">
-        <v>2019211230</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30">
-        <f t="shared" si="0"/>
         <v>79.400000000000006</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30" t="str">
-        <f>VLOOKUP(F33,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30" t="str">
+        <f>VLOOKUP($I33,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.50</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="66" t="str">
+      <c r="L33" s="29"/>
+      <c r="M33" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="31">
+      <c r="N33" s="29"/>
+      <c r="O33" s="31">
         <v>90</v>
       </c>
-      <c r="M33" s="31">
+      <c r="P33" s="31">
         <v>80</v>
       </c>
-      <c r="N33" s="31">
+      <c r="Q33" s="31">
         <v>100</v>
       </c>
-      <c r="O33" s="31">
-        <f t="shared" si="11"/>
+      <c r="R33" s="31">
+        <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="P33" s="32">
+      <c r="S33" s="32">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="T33" s="33">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="U33" s="29"/>
+      <c r="V33" s="31">
+        <v>100</v>
+      </c>
+      <c r="W33" s="31">
+        <v>100</v>
+      </c>
+      <c r="X33" s="31">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="Y33" s="68">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="R33" s="29"/>
-      <c r="S33" s="31">
-        <v>100</v>
-      </c>
-      <c r="T33" s="31">
-        <v>100</v>
-      </c>
-      <c r="U33" s="31">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="V33" s="68">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="W33" s="31">
+      <c r="Z33" s="31">
         <v>70</v>
       </c>
-      <c r="X33" s="34">
+      <c r="AA33" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB33" s="69">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="35">
+        <v>29</v>
+      </c>
+      <c r="AE33" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y33" s="69">
+        <v>57.999999999999993</v>
+      </c>
+      <c r="AF33" s="33">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="35">
-        <v>29</v>
-      </c>
-      <c r="AB33" s="70">
-        <f t="shared" si="9"/>
-        <v>57.999999999999993</v>
-      </c>
-      <c r="AC33" s="33">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK33" s="39"/>
+    </row>
+    <row r="34" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="104">
+        <v>24</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="63">
+        <v>2017279286</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF33" s="142"/>
-      <c r="AG33" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH33" s="39"/>
-    </row>
-    <row r="34" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="146">
-        <v>24</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="63">
-        <v>2017279286</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30">
-        <f t="shared" si="0"/>
         <v>73.416666666666671</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30" t="str">
-        <f>VLOOKUP(F34,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30" t="str">
+        <f>VLOOKUP($I34,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="66" t="str">
+      <c r="L34" s="29"/>
+      <c r="M34" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="31">
+      <c r="N34" s="29"/>
+      <c r="O34" s="31">
         <v>59</v>
       </c>
-      <c r="M34" s="31">
+      <c r="P34" s="31">
         <v>86</v>
       </c>
-      <c r="N34" s="31">
+      <c r="Q34" s="31">
         <v>96</v>
       </c>
-      <c r="O34" s="31">
-        <f t="shared" si="11"/>
+      <c r="R34" s="31">
+        <f t="shared" si="12"/>
         <v>241</v>
       </c>
-      <c r="P34" s="32">
+      <c r="S34" s="32">
         <f t="shared" si="5"/>
         <v>80.333333333333329</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="T34" s="33">
+        <f t="shared" si="8"/>
+        <v>40.166666666666664</v>
+      </c>
+      <c r="U34" s="29"/>
+      <c r="V34" s="31">
+        <v>51</v>
+      </c>
+      <c r="W34" s="31">
+        <v>70</v>
+      </c>
+      <c r="X34" s="31">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="Y34" s="68">
         <f t="shared" si="7"/>
-        <v>40.166666666666664</v>
-      </c>
-      <c r="R34" s="29"/>
-      <c r="S34" s="31">
-        <v>51</v>
-      </c>
-      <c r="T34" s="31">
-        <v>70</v>
-      </c>
-      <c r="U34" s="31">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="V34" s="68">
-        <f t="shared" si="6"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="W34" s="31">
+      <c r="Z34" s="31">
         <v>80</v>
       </c>
-      <c r="X34" s="34">
+      <c r="AA34" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB34" s="69">
+        <f t="shared" si="0"/>
+        <v>14.05</v>
+      </c>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="35">
+        <v>32</v>
+      </c>
+      <c r="AE34" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y34" s="69">
+        <v>64</v>
+      </c>
+      <c r="AF34" s="33">
         <f t="shared" si="1"/>
-        <v>14.05</v>
-      </c>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="35">
-        <v>32</v>
-      </c>
-      <c r="AB34" s="70">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="AC34" s="33">
-        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="141" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF34" s="142"/>
-      <c r="AG34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK34" s="39"/>
       <c r="AL34" s="40"/>
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
@@ -5266,297 +5425,312 @@
       <c r="CZ34" s="40"/>
       <c r="DA34" s="40"/>
       <c r="DB34" s="40"/>
+      <c r="DC34" s="40"/>
+      <c r="DD34" s="40"/>
+      <c r="DE34" s="40"/>
     </row>
-    <row r="35" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="146">
+      <c r="B35" s="104">
         <v>25</v>
       </c>
-      <c r="C35" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="63">
+      <c r="C35" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="63">
         <v>2022282892</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30">
-        <f t="shared" si="0"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30">
+        <f t="shared" si="2"/>
         <v>73.033333333333331</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30" t="str">
-        <f>VLOOKUP(F35,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30" t="str">
+        <f>VLOOKUP($I35,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>3.00</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="66" t="str">
+      <c r="L35" s="29"/>
+      <c r="M35" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="31">
+      <c r="N35" s="29"/>
+      <c r="O35" s="31">
         <v>20</v>
       </c>
-      <c r="M35" s="31">
+      <c r="P35" s="31">
         <v>97</v>
       </c>
-      <c r="N35" s="31">
+      <c r="Q35" s="31">
         <v>92</v>
       </c>
-      <c r="O35" s="31">
-        <f t="shared" si="11"/>
+      <c r="R35" s="31">
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
-      <c r="P35" s="32">
+      <c r="S35" s="32">
         <f t="shared" si="5"/>
         <v>69.666666666666671</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="T35" s="33">
+        <f t="shared" si="8"/>
+        <v>34.833333333333336</v>
+      </c>
+      <c r="U35" s="29"/>
+      <c r="V35" s="31">
+        <v>78</v>
+      </c>
+      <c r="W35" s="31">
+        <v>82</v>
+      </c>
+      <c r="X35" s="31">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="Y35" s="68">
         <f t="shared" si="7"/>
-        <v>34.833333333333336</v>
-      </c>
-      <c r="R35" s="29"/>
-      <c r="S35" s="31">
-        <v>78</v>
-      </c>
-      <c r="T35" s="31">
-        <v>82</v>
-      </c>
-      <c r="U35" s="31">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="V35" s="68">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="W35" s="31">
+      <c r="Z35" s="31">
         <v>80</v>
       </c>
-      <c r="X35" s="34">
+      <c r="AA35" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB35" s="69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="35">
+        <v>37</v>
+      </c>
+      <c r="AE35" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y35" s="69">
+        <v>74</v>
+      </c>
+      <c r="AF35" s="33">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="35">
-        <v>37</v>
-      </c>
-      <c r="AB35" s="70">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="AC35" s="33">
+        <v>22.2</v>
+      </c>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI35" s="117"/>
+      <c r="AJ35" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK35" s="39"/>
+    </row>
+    <row r="36" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="104">
+        <v>26</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="63">
+        <v>2019393862</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30">
         <f t="shared" si="2"/>
-        <v>22.2</v>
-      </c>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF35" s="142"/>
-      <c r="AG35" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH35" s="39"/>
-    </row>
-    <row r="36" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="146">
-        <v>26</v>
-      </c>
-      <c r="C36" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="63">
-        <v>2019393862</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30">
-        <f t="shared" si="0"/>
         <v>70.45</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30" t="str">
-        <f>VLOOKUP(F36,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30" t="str">
+        <f>VLOOKUP($I36,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>3.00</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="66" t="str">
+      <c r="L36" s="29"/>
+      <c r="M36" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="31">
+      <c r="N36" s="29"/>
+      <c r="O36" s="31">
         <v>72</v>
       </c>
-      <c r="M36" s="31">
+      <c r="P36" s="31">
         <v>29</v>
       </c>
-      <c r="N36" s="31">
+      <c r="Q36" s="31">
         <v>91</v>
       </c>
-      <c r="O36" s="31">
-        <f t="shared" si="11"/>
+      <c r="R36" s="31">
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
-      <c r="P36" s="32">
+      <c r="S36" s="32">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="T36" s="33">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="U36" s="29"/>
+      <c r="V36" s="31">
+        <v>76</v>
+      </c>
+      <c r="W36" s="31">
+        <v>77</v>
+      </c>
+      <c r="X36" s="31">
+        <f t="shared" si="9"/>
+        <v>153</v>
+      </c>
+      <c r="Y36" s="68">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="R36" s="29"/>
-      <c r="S36" s="31">
+        <v>7.65</v>
+      </c>
+      <c r="Z36" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA36" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB36" s="69">
+        <f t="shared" si="0"/>
+        <v>15.65</v>
+      </c>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="35">
+        <v>38</v>
+      </c>
+      <c r="AE36" s="70">
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="T36" s="31">
-        <v>77</v>
-      </c>
-      <c r="U36" s="31">
-        <f t="shared" si="8"/>
-        <v>153</v>
-      </c>
-      <c r="V36" s="68">
-        <f t="shared" si="6"/>
-        <v>7.65</v>
-      </c>
-      <c r="W36" s="31">
-        <v>80</v>
-      </c>
-      <c r="X36" s="34">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y36" s="69">
+      <c r="AF36" s="33">
         <f t="shared" si="1"/>
-        <v>15.65</v>
-      </c>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="35">
-        <v>38</v>
-      </c>
-      <c r="AB36" s="70">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="AC36" s="33">
+        <v>22.8</v>
+      </c>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI36" s="117"/>
+      <c r="AJ36" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK36" s="39"/>
+    </row>
+    <row r="37" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="104">
+        <v>27</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="63">
+        <v>2020214551</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30">
         <f t="shared" si="2"/>
-        <v>22.8</v>
-      </c>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="141" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF36" s="142"/>
-      <c r="AG36" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH36" s="39"/>
-    </row>
-    <row r="37" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="146">
-        <v>27</v>
-      </c>
-      <c r="C37" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="63">
-        <v>2020214551</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30">
-        <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30" t="str">
-        <f>VLOOKUP(F37,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30" t="str">
+        <f>VLOOKUP($I37,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="66" t="str">
+      <c r="L37" s="29"/>
+      <c r="M37" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="31">
+      <c r="N37" s="29"/>
+      <c r="O37" s="31">
         <v>38</v>
       </c>
-      <c r="M37" s="31">
+      <c r="P37" s="31">
         <v>22</v>
       </c>
-      <c r="N37" s="31">
+      <c r="Q37" s="31">
         <v>99</v>
       </c>
-      <c r="O37" s="31">
-        <f t="shared" si="11"/>
+      <c r="R37" s="31">
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
-      <c r="P37" s="32">
+      <c r="S37" s="32">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="T37" s="33">
+        <f t="shared" si="8"/>
+        <v>26.5</v>
+      </c>
+      <c r="U37" s="29"/>
+      <c r="V37" s="31">
+        <v>55</v>
+      </c>
+      <c r="W37" s="31">
+        <v>90</v>
+      </c>
+      <c r="X37" s="31">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="Y37" s="68">
         <f t="shared" si="7"/>
-        <v>26.5</v>
-      </c>
-      <c r="R37" s="29"/>
-      <c r="S37" s="31">
-        <v>55</v>
-      </c>
-      <c r="T37" s="31">
-        <v>90</v>
-      </c>
-      <c r="U37" s="31">
-        <f t="shared" si="8"/>
-        <v>145</v>
-      </c>
-      <c r="V37" s="68">
-        <f t="shared" si="6"/>
         <v>7.25</v>
       </c>
-      <c r="W37" s="31">
+      <c r="Z37" s="31">
         <v>70</v>
       </c>
-      <c r="X37" s="34">
+      <c r="AA37" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB37" s="69">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="35">
+        <v>40</v>
+      </c>
+      <c r="AE37" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y37" s="69">
+        <v>80</v>
+      </c>
+      <c r="AF37" s="33">
         <f t="shared" si="1"/>
-        <v>14.25</v>
-      </c>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="35">
-        <v>40</v>
-      </c>
-      <c r="AB37" s="70">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="AC37" s="33">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF37" s="157"/>
-      <c r="AG37" s="50">
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI37" s="153"/>
+      <c r="AJ37" s="50">
         <v>8</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="40"/>
+      <c r="AK37" s="39"/>
       <c r="AL37" s="40"/>
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
@@ -5626,291 +5800,306 @@
       <c r="CZ37" s="40"/>
       <c r="DA37" s="40"/>
       <c r="DB37" s="40"/>
+      <c r="DC37" s="40"/>
+      <c r="DD37" s="40"/>
+      <c r="DE37" s="40"/>
     </row>
-    <row r="38" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="146">
+      <c r="B38" s="104">
         <v>28</v>
       </c>
-      <c r="C38" s="146" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="63">
+      <c r="C38" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="63">
         <v>2019339881</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30">
-        <f t="shared" si="0"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30">
+        <f t="shared" si="2"/>
         <v>76.516666666666666</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30" t="str">
-        <f>VLOOKUP(F38,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30" t="str">
+        <f>VLOOKUP($I38,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="66" t="str">
+      <c r="L38" s="29"/>
+      <c r="M38" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="31">
+      <c r="N38" s="29"/>
+      <c r="O38" s="31">
         <v>66</v>
       </c>
-      <c r="M38" s="31">
+      <c r="P38" s="31">
         <v>46</v>
       </c>
-      <c r="N38" s="31">
+      <c r="Q38" s="31">
         <v>93</v>
       </c>
-      <c r="O38" s="31">
-        <f t="shared" si="11"/>
+      <c r="R38" s="31">
+        <f t="shared" si="12"/>
         <v>205</v>
       </c>
-      <c r="P38" s="32">
+      <c r="S38" s="32">
         <f t="shared" si="5"/>
         <v>68.333333333333329</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="T38" s="33">
+        <f t="shared" si="8"/>
+        <v>34.166666666666664</v>
+      </c>
+      <c r="U38" s="29"/>
+      <c r="V38" s="31">
+        <v>93</v>
+      </c>
+      <c r="W38" s="31">
+        <v>78</v>
+      </c>
+      <c r="X38" s="31">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="Y38" s="68">
         <f t="shared" si="7"/>
-        <v>34.166666666666664</v>
-      </c>
-      <c r="R38" s="29"/>
-      <c r="S38" s="31">
-        <v>93</v>
-      </c>
-      <c r="T38" s="31">
-        <v>78</v>
-      </c>
-      <c r="U38" s="31">
-        <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="V38" s="68">
-        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="W38" s="31">
+      <c r="Z38" s="31">
         <v>80</v>
       </c>
-      <c r="X38" s="34">
+      <c r="AA38" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB38" s="69">
+        <f t="shared" si="0"/>
+        <v>16.55</v>
+      </c>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="35">
+        <v>43</v>
+      </c>
+      <c r="AE38" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y38" s="69">
+        <v>86</v>
+      </c>
+      <c r="AF38" s="33">
         <f t="shared" si="1"/>
-        <v>16.55</v>
-      </c>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="35">
-        <v>43</v>
-      </c>
-      <c r="AB38" s="70">
-        <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="AC38" s="33">
+        <v>25.8</v>
+      </c>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="39"/>
+    </row>
+    <row r="39" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="104">
+        <v>29</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="63">
+        <v>2021238979</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30">
         <f t="shared" si="2"/>
-        <v>25.8</v>
-      </c>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="39"/>
-    </row>
-    <row r="39" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="146">
-        <v>29</v>
-      </c>
-      <c r="C39" s="146" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="63">
-        <v>2021238979</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30">
-        <f t="shared" si="0"/>
         <v>68.399999999999991</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30" t="str">
-        <f>VLOOKUP(F39,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30" t="str">
+        <f>VLOOKUP($I39,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="66" t="str">
+      <c r="L39" s="29"/>
+      <c r="M39" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="31">
+      <c r="N39" s="29"/>
+      <c r="O39" s="31">
         <v>34</v>
       </c>
-      <c r="M39" s="31">
+      <c r="P39" s="31">
         <v>72</v>
       </c>
-      <c r="N39" s="31">
+      <c r="Q39" s="31">
         <v>92</v>
       </c>
-      <c r="O39" s="31">
-        <f t="shared" si="11"/>
+      <c r="R39" s="31">
+        <f t="shared" si="12"/>
         <v>198</v>
       </c>
-      <c r="P39" s="32">
+      <c r="S39" s="32">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="T39" s="33">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="U39" s="29"/>
+      <c r="V39" s="31">
+        <v>74</v>
+      </c>
+      <c r="W39" s="31">
+        <v>82</v>
+      </c>
+      <c r="X39" s="31">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="Y39" s="68">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="R39" s="29"/>
-      <c r="S39" s="31">
-        <v>74</v>
-      </c>
-      <c r="T39" s="31">
-        <v>82</v>
-      </c>
-      <c r="U39" s="31">
-        <f t="shared" si="8"/>
-        <v>156</v>
-      </c>
-      <c r="V39" s="68">
-        <f t="shared" si="6"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="W39" s="31">
+      <c r="Z39" s="31">
         <v>90</v>
       </c>
-      <c r="X39" s="34">
+      <c r="AA39" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB39" s="69">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="35">
+        <v>31</v>
+      </c>
+      <c r="AE39" s="70">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y39" s="69">
+        <v>62</v>
+      </c>
+      <c r="AF39" s="33">
         <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="35">
-        <v>31</v>
-      </c>
-      <c r="AB39" s="70">
-        <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
-      <c r="AC39" s="33">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI39" s="112"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="39"/>
+    </row>
+    <row r="40" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="104">
+        <v>30</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="63">
+        <v>2018190889</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30">
         <f t="shared" si="2"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF39" s="140"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="39"/>
-    </row>
-    <row r="40" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="146">
-        <v>30</v>
-      </c>
-      <c r="C40" s="146" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="63">
-        <v>2018190889</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30">
-        <f t="shared" si="0"/>
         <v>68.066666666666663</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30" t="str">
-        <f>VLOOKUP(F40,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30" t="str">
+        <f>VLOOKUP($I40,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="66" t="str">
+      <c r="L40" s="29"/>
+      <c r="M40" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="31">
+      <c r="N40" s="29"/>
+      <c r="O40" s="31">
         <v>40</v>
       </c>
-      <c r="M40" s="31">
+      <c r="P40" s="31">
         <v>49</v>
       </c>
-      <c r="N40" s="31">
+      <c r="Q40" s="31">
         <v>92</v>
       </c>
-      <c r="O40" s="31">
-        <f t="shared" si="11"/>
+      <c r="R40" s="31">
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
-      <c r="P40" s="32">
+      <c r="S40" s="32">
         <f t="shared" si="5"/>
         <v>60.333333333333336</v>
       </c>
-      <c r="Q40" s="33">
+      <c r="T40" s="33">
+        <f t="shared" si="8"/>
+        <v>30.166666666666668</v>
+      </c>
+      <c r="U40" s="29"/>
+      <c r="V40" s="31">
+        <v>70</v>
+      </c>
+      <c r="W40" s="31">
+        <v>92</v>
+      </c>
+      <c r="X40" s="31">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="Y40" s="68">
         <f t="shared" si="7"/>
-        <v>30.166666666666668</v>
-      </c>
-      <c r="R40" s="29"/>
-      <c r="S40" s="31">
+        <v>8.1</v>
+      </c>
+      <c r="Z40" s="31">
         <v>70</v>
       </c>
-      <c r="T40" s="31">
-        <v>92</v>
-      </c>
-      <c r="U40" s="31">
-        <f t="shared" si="8"/>
-        <v>162</v>
-      </c>
-      <c r="V40" s="68">
-        <f t="shared" si="6"/>
-        <v>8.1</v>
-      </c>
-      <c r="W40" s="31">
-        <v>70</v>
-      </c>
-      <c r="X40" s="34">
+      <c r="AA40" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB40" s="69">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="35">
+        <v>38</v>
+      </c>
+      <c r="AE40" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y40" s="69">
+        <v>76</v>
+      </c>
+      <c r="AF40" s="33">
         <f t="shared" si="1"/>
-        <v>15.1</v>
-      </c>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="35">
-        <v>38</v>
-      </c>
-      <c r="AB40" s="70">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="AC40" s="33">
-        <f t="shared" si="2"/>
         <v>22.8</v>
       </c>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="151" t="s">
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="AF40" s="148"/>
-      <c r="AG40" s="150">
+      <c r="AI40" s="151"/>
+      <c r="AJ40" s="107">
         <v>0.5</v>
       </c>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
+      <c r="AK40" s="39"/>
       <c r="AL40" s="40"/>
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
@@ -5980,201 +6169,211 @@
       <c r="CZ40" s="40"/>
       <c r="DA40" s="40"/>
       <c r="DB40" s="40"/>
+      <c r="DC40" s="40"/>
+      <c r="DD40" s="40"/>
+      <c r="DE40" s="40"/>
     </row>
-    <row r="41" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="146">
+      <c r="B41" s="104">
         <v>31</v>
       </c>
-      <c r="C41" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="63">
+      <c r="C41" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="63">
         <v>2022142114</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30">
-        <f t="shared" si="0"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30" t="str">
-        <f>VLOOKUP(F41,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30" t="str">
+        <f>VLOOKUP($I41,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>1.00</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="66" t="str">
+      <c r="L41" s="29"/>
+      <c r="M41" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="31">
+      <c r="N41" s="29"/>
+      <c r="O41" s="31">
         <v>100</v>
       </c>
-      <c r="M41" s="31">
+      <c r="P41" s="31">
         <v>100</v>
       </c>
-      <c r="N41" s="31">
+      <c r="Q41" s="31">
         <v>100</v>
       </c>
-      <c r="O41" s="31">
-        <f t="shared" si="11"/>
+      <c r="R41" s="31">
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
-      <c r="P41" s="32">
+      <c r="S41" s="32">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Q41" s="33">
-        <f t="shared" si="7"/>
+      <c r="T41" s="33">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="R41" s="29"/>
-      <c r="S41" s="31">
+      <c r="U41" s="29"/>
+      <c r="V41" s="31">
         <v>100</v>
-      </c>
-      <c r="T41" s="31">
-        <v>100</v>
-      </c>
-      <c r="U41" s="31">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="V41" s="68">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="W41" s="31">
         <v>100</v>
       </c>
-      <c r="X41" s="34">
+      <c r="X41" s="31">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="Y41" s="68">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z41" s="31">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB41" s="69">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="35">
+        <v>45</v>
+      </c>
+      <c r="AE41" s="70">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y41" s="69">
+        <v>90</v>
+      </c>
+      <c r="AF41" s="33">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="35">
-        <v>45</v>
-      </c>
-      <c r="AB41" s="70">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="AC41" s="33">
+        <v>27</v>
+      </c>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI41" s="109"/>
+      <c r="AJ41" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="AK41" s="39"/>
+    </row>
+    <row r="42" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="104">
+        <v>32</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="63">
+        <v>2022411382</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="150">
-        <v>0.2</v>
-      </c>
-      <c r="AH41" s="39"/>
-    </row>
-    <row r="42" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="146">
-        <v>32</v>
-      </c>
-      <c r="C42" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="63">
-        <v>2022411382</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30">
-        <f t="shared" si="0"/>
         <v>74.25</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30" t="str">
-        <f>VLOOKUP(F42,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30" t="str">
+        <f>VLOOKUP($I42,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="66" t="str">
+      <c r="L42" s="29"/>
+      <c r="M42" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="51">
+      <c r="N42" s="29"/>
+      <c r="O42" s="51">
         <v>43</v>
       </c>
-      <c r="M42" s="31">
+      <c r="P42" s="31">
         <v>95</v>
       </c>
-      <c r="N42" s="31">
+      <c r="Q42" s="31">
         <v>99</v>
       </c>
-      <c r="O42" s="31">
-        <f t="shared" si="11"/>
+      <c r="R42" s="31">
+        <f t="shared" si="12"/>
         <v>237</v>
       </c>
-      <c r="P42" s="32">
+      <c r="S42" s="32">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="Q42" s="33">
+      <c r="T42" s="33">
+        <f t="shared" si="8"/>
+        <v>39.5</v>
+      </c>
+      <c r="U42" s="29"/>
+      <c r="V42" s="51">
+        <v>87</v>
+      </c>
+      <c r="W42" s="31">
+        <v>76</v>
+      </c>
+      <c r="X42" s="31">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="Y42" s="68">
         <f t="shared" si="7"/>
-        <v>39.5</v>
-      </c>
-      <c r="R42" s="29"/>
-      <c r="S42" s="51">
-        <v>87</v>
-      </c>
-      <c r="T42" s="31">
-        <v>76</v>
-      </c>
-      <c r="U42" s="31">
-        <f t="shared" si="8"/>
-        <v>163</v>
-      </c>
-      <c r="V42" s="68">
-        <f t="shared" si="6"/>
         <v>8.15</v>
       </c>
-      <c r="W42" s="31">
+      <c r="Z42" s="31">
         <v>80</v>
       </c>
-      <c r="X42" s="34">
+      <c r="AA42" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB42" s="69">
+        <f t="shared" si="0"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="35">
+        <v>31</v>
+      </c>
+      <c r="AE42" s="70">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y42" s="69">
+        <v>62</v>
+      </c>
+      <c r="AF42" s="33">
         <f t="shared" si="1"/>
-        <v>16.149999999999999</v>
-      </c>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="35">
-        <v>31</v>
-      </c>
-      <c r="AB42" s="70">
-        <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
-      <c r="AC42" s="33">
-        <f t="shared" si="2"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="152" t="s">
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AF42" s="83"/>
-      <c r="AG42" s="150">
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="107">
         <v>0.3</v>
       </c>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="40"/>
+      <c r="AK42" s="39"/>
       <c r="AL42" s="40"/>
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
@@ -6244,745 +6443,785 @@
       <c r="CZ42" s="40"/>
       <c r="DA42" s="40"/>
       <c r="DB42" s="40"/>
+      <c r="DC42" s="40"/>
+      <c r="DD42" s="40"/>
+      <c r="DE42" s="40"/>
     </row>
-    <row r="43" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="146">
+      <c r="B43" s="104">
         <v>33</v>
       </c>
-      <c r="C43" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="63">
+      <c r="C43" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="63">
         <v>2019322139</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30">
-        <f t="shared" si="0"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30">
+        <f t="shared" si="2"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30" t="str">
-        <f>VLOOKUP(F43,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30" t="str">
+        <f>VLOOKUP($I43,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.25</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="66" t="str">
+      <c r="L43" s="29"/>
+      <c r="M43" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="51">
+      <c r="N43" s="29"/>
+      <c r="O43" s="51">
         <v>70</v>
       </c>
-      <c r="M43" s="31">
+      <c r="P43" s="31">
         <v>70</v>
       </c>
-      <c r="N43" s="31">
+      <c r="Q43" s="31">
         <v>70</v>
       </c>
-      <c r="O43" s="31">
-        <f t="shared" si="11"/>
+      <c r="R43" s="31">
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
-      <c r="P43" s="32">
+      <c r="S43" s="32">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="Q43" s="33">
-        <f t="shared" si="7"/>
+      <c r="T43" s="33">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="R43" s="29"/>
-      <c r="S43" s="51">
+      <c r="U43" s="29"/>
+      <c r="V43" s="51">
         <v>100</v>
-      </c>
-      <c r="T43" s="31">
-        <v>100</v>
-      </c>
-      <c r="U43" s="31">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="V43" s="68">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="W43" s="31">
         <v>100</v>
       </c>
-      <c r="X43" s="34">
+      <c r="X43" s="31">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="Y43" s="68">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z43" s="31">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB43" s="69">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="35">
+        <v>44</v>
+      </c>
+      <c r="AE43" s="70">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y43" s="69">
+        <v>88</v>
+      </c>
+      <c r="AF43" s="33">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="35">
-        <v>44</v>
-      </c>
-      <c r="AB43" s="70">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="AC43" s="33">
+        <v>26.4</v>
+      </c>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI43" s="111"/>
+      <c r="AJ43" s="106">
+        <v>0.7</v>
+      </c>
+      <c r="AK43" s="39"/>
+    </row>
+    <row r="44" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="104">
+        <v>34</v>
+      </c>
+      <c r="C44" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="63">
+        <v>2017442952</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30">
         <f t="shared" si="2"/>
-        <v>26.4</v>
-      </c>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="158" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF43" s="84"/>
-      <c r="AG43" s="149">
-        <v>0.7</v>
-      </c>
-      <c r="AH43" s="39"/>
-    </row>
-    <row r="44" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="146">
-        <v>34</v>
-      </c>
-      <c r="C44" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="63">
-        <v>2017442952</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30">
-        <f t="shared" si="0"/>
         <v>77.966666666666654</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30" t="str">
-        <f>VLOOKUP(F44,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30" t="str">
+        <f>VLOOKUP($I44,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.50</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="66" t="str">
+      <c r="L44" s="29"/>
+      <c r="M44" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="51">
+      <c r="N44" s="29"/>
+      <c r="O44" s="51">
         <v>92</v>
       </c>
-      <c r="M44" s="31">
+      <c r="P44" s="31">
         <v>28</v>
       </c>
-      <c r="N44" s="31">
+      <c r="Q44" s="31">
         <v>97</v>
       </c>
-      <c r="O44" s="31">
-        <f t="shared" si="11"/>
+      <c r="R44" s="31">
+        <f t="shared" si="12"/>
         <v>217</v>
       </c>
-      <c r="P44" s="32">
+      <c r="S44" s="32">
         <f t="shared" si="5"/>
         <v>72.333333333333329</v>
       </c>
-      <c r="Q44" s="33">
+      <c r="T44" s="33">
+        <f t="shared" si="8"/>
+        <v>36.166666666666664</v>
+      </c>
+      <c r="U44" s="29"/>
+      <c r="V44" s="51">
+        <v>62</v>
+      </c>
+      <c r="W44" s="31">
+        <v>82</v>
+      </c>
+      <c r="X44" s="31">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="Y44" s="68">
         <f t="shared" si="7"/>
-        <v>36.166666666666664</v>
-      </c>
-      <c r="R44" s="29"/>
-      <c r="S44" s="51">
-        <v>62</v>
-      </c>
-      <c r="T44" s="31">
+        <v>7.2</v>
+      </c>
+      <c r="Z44" s="31">
+        <v>70</v>
+      </c>
+      <c r="AA44" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB44" s="69">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="35">
+        <v>46</v>
+      </c>
+      <c r="AE44" s="70">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="AF44" s="33">
+        <f t="shared" si="1"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="39"/>
+    </row>
+    <row r="45" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="104">
+        <v>35</v>
+      </c>
+      <c r="C45" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="U44" s="31">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="V44" s="68">
-        <f t="shared" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="W44" s="31">
-        <v>70</v>
-      </c>
-      <c r="X44" s="34">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y44" s="69">
-        <f t="shared" si="1"/>
-        <v>14.2</v>
-      </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="35">
-        <v>46</v>
-      </c>
-      <c r="AB44" s="70">
-        <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="AC44" s="33">
+      <c r="D45" s="29"/>
+      <c r="E45" s="63">
+        <v>2022151586</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30">
         <f t="shared" si="2"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="147"/>
-      <c r="AH44" s="39"/>
-    </row>
-    <row r="45" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="146">
-        <v>35</v>
-      </c>
-      <c r="C45" s="146" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="63">
-        <v>2022151586</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30">
-        <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30" t="str">
-        <f>VLOOKUP(F45,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30" t="str">
+        <f>VLOOKUP($I45,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="66" t="str">
+      <c r="L45" s="29"/>
+      <c r="M45" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="51">
+      <c r="N45" s="29"/>
+      <c r="O45" s="51">
         <v>31</v>
       </c>
-      <c r="M45" s="31">
+      <c r="P45" s="31">
         <v>78</v>
       </c>
-      <c r="N45" s="31">
+      <c r="Q45" s="31">
         <v>92</v>
       </c>
-      <c r="O45" s="31">
-        <f t="shared" si="11"/>
+      <c r="R45" s="31">
+        <f t="shared" si="12"/>
         <v>201</v>
       </c>
-      <c r="P45" s="32">
+      <c r="S45" s="32">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="T45" s="33">
+        <f t="shared" si="8"/>
+        <v>33.5</v>
+      </c>
+      <c r="U45" s="29"/>
+      <c r="V45" s="51">
+        <v>92</v>
+      </c>
+      <c r="W45" s="31">
+        <v>76</v>
+      </c>
+      <c r="X45" s="31">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="Y45" s="68">
         <f t="shared" si="7"/>
-        <v>33.5</v>
-      </c>
-      <c r="R45" s="29"/>
-      <c r="S45" s="51">
-        <v>92</v>
-      </c>
-      <c r="T45" s="31">
-        <v>76</v>
-      </c>
-      <c r="U45" s="31">
-        <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="V45" s="68">
-        <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="W45" s="31">
+      <c r="Z45" s="31">
         <v>90</v>
       </c>
-      <c r="X45" s="34">
+      <c r="AA45" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB45" s="69">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="35">
+        <v>41</v>
+      </c>
+      <c r="AE45" s="70">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y45" s="69">
+        <v>82</v>
+      </c>
+      <c r="AF45" s="33">
         <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="35">
-        <v>41</v>
-      </c>
-      <c r="AB45" s="70">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="AC45" s="33">
+        <v>24.599999999999998</v>
+      </c>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="85"/>
+      <c r="AJ45" s="86"/>
+      <c r="AK45" s="39"/>
+    </row>
+    <row r="46" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="104">
+        <v>36</v>
+      </c>
+      <c r="C46" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="63">
+        <v>2017454754</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30">
         <f t="shared" si="2"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="120"/>
-      <c r="AF45" s="121"/>
-      <c r="AG45" s="122"/>
-      <c r="AH45" s="39"/>
-    </row>
-    <row r="46" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="146">
-        <v>36</v>
-      </c>
-      <c r="C46" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="63">
-        <v>2017454754</v>
-      </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30">
-        <f t="shared" si="0"/>
         <v>68.63333333333334</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30" t="str">
-        <f>VLOOKUP(F46,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30" t="str">
+        <f>VLOOKUP($I46,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="66" t="str">
+      <c r="L46" s="29"/>
+      <c r="M46" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="51">
+      <c r="N46" s="29"/>
+      <c r="O46" s="51">
         <v>69</v>
       </c>
-      <c r="M46" s="31">
+      <c r="P46" s="31">
         <v>37</v>
       </c>
-      <c r="N46" s="31">
+      <c r="Q46" s="31">
         <v>97</v>
       </c>
-      <c r="O46" s="31">
-        <f t="shared" si="11"/>
+      <c r="R46" s="31">
+        <f t="shared" si="12"/>
         <v>203</v>
       </c>
-      <c r="P46" s="32">
+      <c r="S46" s="32">
         <f t="shared" si="5"/>
         <v>67.666666666666671</v>
       </c>
-      <c r="Q46" s="33">
+      <c r="T46" s="33">
+        <f t="shared" si="8"/>
+        <v>33.833333333333336</v>
+      </c>
+      <c r="U46" s="29"/>
+      <c r="V46" s="51">
+        <v>87</v>
+      </c>
+      <c r="W46" s="31">
+        <v>73</v>
+      </c>
+      <c r="X46" s="31">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="Y46" s="68">
         <f t="shared" si="7"/>
-        <v>33.833333333333336</v>
-      </c>
-      <c r="R46" s="29"/>
-      <c r="S46" s="51">
-        <v>87</v>
-      </c>
-      <c r="T46" s="31">
-        <v>73</v>
-      </c>
-      <c r="U46" s="31">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="V46" s="68">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="W46" s="31">
+      <c r="Z46" s="31">
         <v>70</v>
       </c>
-      <c r="X46" s="34">
+      <c r="AA46" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB46" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="35">
+        <v>33</v>
+      </c>
+      <c r="AE46" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y46" s="69">
+        <v>66</v>
+      </c>
+      <c r="AF46" s="33">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="35">
-        <v>33</v>
-      </c>
-      <c r="AB46" s="70">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="AC46" s="33">
+        <v>19.8</v>
+      </c>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="154"/>
+      <c r="AI46" s="155"/>
+      <c r="AJ46" s="156"/>
+      <c r="AK46" s="39"/>
+    </row>
+    <row r="47" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="104">
+        <v>37</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="63">
+        <v>2020493517</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30">
         <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="123"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="125"/>
-      <c r="AH46" s="39"/>
-    </row>
-    <row r="47" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="146">
-        <v>37</v>
-      </c>
-      <c r="C47" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="63">
-        <v>2020493517</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30">
-        <f t="shared" si="0"/>
         <v>66.466666666666669</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30" t="str">
-        <f>VLOOKUP(F47,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30" t="str">
+        <f>VLOOKUP($I47,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="66" t="str">
+      <c r="L47" s="29"/>
+      <c r="M47" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="51">
+      <c r="N47" s="29"/>
+      <c r="O47" s="51">
         <v>33</v>
       </c>
-      <c r="M47" s="31">
+      <c r="P47" s="31">
         <v>23</v>
       </c>
-      <c r="N47" s="31">
+      <c r="Q47" s="31">
         <v>92</v>
       </c>
-      <c r="O47" s="31">
-        <f t="shared" si="11"/>
+      <c r="R47" s="31">
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
-      <c r="P47" s="32">
+      <c r="S47" s="32">
         <f t="shared" si="5"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="T47" s="33">
+        <f t="shared" si="8"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="U47" s="29"/>
+      <c r="V47" s="51">
+        <v>74</v>
+      </c>
+      <c r="W47" s="31">
+        <v>82</v>
+      </c>
+      <c r="X47" s="31">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="Y47" s="68">
         <f t="shared" si="7"/>
-        <v>24.666666666666668</v>
-      </c>
-      <c r="R47" s="29"/>
-      <c r="S47" s="51">
-        <v>74</v>
-      </c>
-      <c r="T47" s="31">
-        <v>82</v>
-      </c>
-      <c r="U47" s="31">
-        <f t="shared" si="8"/>
-        <v>156</v>
-      </c>
-      <c r="V47" s="68">
-        <f t="shared" si="6"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="W47" s="31">
+      <c r="Z47" s="31">
         <v>70</v>
       </c>
-      <c r="X47" s="34">
+      <c r="AA47" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB47" s="69">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="35">
+        <v>45</v>
+      </c>
+      <c r="AE47" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y47" s="69">
+        <v>90</v>
+      </c>
+      <c r="AF47" s="33">
         <f t="shared" si="1"/>
-        <v>14.8</v>
-      </c>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="35">
-        <v>45</v>
-      </c>
-      <c r="AB47" s="70">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="AC47" s="33">
+        <v>27</v>
+      </c>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="157" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI47" s="158"/>
+      <c r="AJ47" s="159"/>
+      <c r="AK47" s="39"/>
+    </row>
+    <row r="48" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="104">
+        <v>38</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="63">
+        <v>2021170539</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="82"/>
-      <c r="AH47" s="39"/>
-    </row>
-    <row r="48" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="146">
-        <v>38</v>
-      </c>
-      <c r="C48" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="63">
-        <v>2021170539</v>
-      </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30">
-        <f t="shared" si="0"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30" t="str">
-        <f>VLOOKUP(F48,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30" t="str">
+        <f>VLOOKUP($I48,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.50</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="66" t="str">
+      <c r="L48" s="29"/>
+      <c r="M48" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="51">
+      <c r="N48" s="29"/>
+      <c r="O48" s="51">
         <v>41</v>
       </c>
-      <c r="M48" s="31">
+      <c r="P48" s="31">
         <v>52</v>
       </c>
-      <c r="N48" s="31">
+      <c r="Q48" s="31">
         <v>99</v>
       </c>
-      <c r="O48" s="31">
-        <f t="shared" si="11"/>
+      <c r="R48" s="31">
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
-      <c r="P48" s="32">
+      <c r="S48" s="32">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="T48" s="33">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="U48" s="29"/>
+      <c r="V48" s="51">
+        <v>86</v>
+      </c>
+      <c r="W48" s="31">
+        <v>92</v>
+      </c>
+      <c r="X48" s="31">
+        <f t="shared" si="9"/>
+        <v>178</v>
+      </c>
+      <c r="Y48" s="68">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="R48" s="29"/>
-      <c r="S48" s="51">
+        <v>8.9</v>
+      </c>
+      <c r="Z48" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA48" s="34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB48" s="69">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="35">
+        <v>47</v>
+      </c>
+      <c r="AE48" s="70">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="AF48" s="33">
+        <f t="shared" si="1"/>
+        <v>28.2</v>
+      </c>
+      <c r="AG48" s="29"/>
+      <c r="AK48" s="39"/>
+    </row>
+    <row r="49" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="104">
+        <v>39</v>
+      </c>
+      <c r="C49" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="T48" s="31">
-        <v>92</v>
-      </c>
-      <c r="U48" s="31">
-        <f t="shared" si="8"/>
-        <v>178</v>
-      </c>
-      <c r="V48" s="68">
-        <f t="shared" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="W48" s="31">
-        <v>80</v>
-      </c>
-      <c r="X48" s="34">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y48" s="69">
-        <f t="shared" si="1"/>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="35">
-        <v>47</v>
-      </c>
-      <c r="AB48" s="70">
-        <f t="shared" si="9"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="63">
+        <v>2020337388</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AC48" s="33">
+      <c r="H49" s="29"/>
+      <c r="I49" s="30">
         <f t="shared" si="2"/>
-        <v>28.2</v>
-      </c>
-      <c r="AD48" s="29"/>
-      <c r="AH48" s="39"/>
-    </row>
-    <row r="49" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="146">
-        <v>39</v>
-      </c>
-      <c r="C49" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="63">
-        <v>2020337388</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30">
-        <f t="shared" si="0"/>
         <v>75.683333333333337</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30" t="str">
-        <f>VLOOKUP(F49,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30" t="str">
+        <f>VLOOKUP($I49,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="66" t="str">
+      <c r="L49" s="29"/>
+      <c r="M49" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="51">
+      <c r="N49" s="29"/>
+      <c r="O49" s="51">
         <v>38</v>
       </c>
-      <c r="M49" s="31">
+      <c r="P49" s="31">
         <v>65</v>
       </c>
-      <c r="N49" s="31">
+      <c r="Q49" s="31">
         <v>91</v>
       </c>
-      <c r="O49" s="31">
-        <f t="shared" si="11"/>
+      <c r="R49" s="31">
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
-      <c r="P49" s="32">
+      <c r="S49" s="32">
         <f t="shared" si="5"/>
         <v>64.666666666666671</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="T49" s="33">
+        <f t="shared" si="8"/>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="U49" s="29"/>
+      <c r="V49" s="51">
+        <v>53</v>
+      </c>
+      <c r="W49" s="31">
+        <v>82</v>
+      </c>
+      <c r="X49" s="31">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="Y49" s="68">
         <f t="shared" si="7"/>
-        <v>32.333333333333336</v>
-      </c>
-      <c r="R49" s="29"/>
-      <c r="S49" s="51">
-        <v>53</v>
-      </c>
-      <c r="T49" s="31">
-        <v>82</v>
-      </c>
-      <c r="U49" s="31">
-        <f t="shared" si="8"/>
-        <v>135</v>
-      </c>
-      <c r="V49" s="68">
-        <f t="shared" si="6"/>
         <v>6.75</v>
       </c>
-      <c r="W49" s="31">
+      <c r="Z49" s="31">
         <v>90</v>
       </c>
-      <c r="X49" s="34">
+      <c r="AA49" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB49" s="69">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="35">
+        <v>46</v>
+      </c>
+      <c r="AE49" s="70">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y49" s="69">
+        <v>92</v>
+      </c>
+      <c r="AF49" s="33">
         <f t="shared" si="1"/>
-        <v>15.75</v>
-      </c>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="35">
-        <v>46</v>
-      </c>
-      <c r="AB49" s="70">
-        <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="AC49" s="33">
+        <v>27.599999999999998</v>
+      </c>
+      <c r="AG49" s="29"/>
+      <c r="AK49" s="39"/>
+    </row>
+    <row r="50" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="104">
+        <v>40</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="63">
+        <v>2021248353</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30">
         <f t="shared" si="2"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="AD49" s="29"/>
-      <c r="AH49" s="39"/>
-    </row>
-    <row r="50" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="146">
-        <v>40</v>
-      </c>
-      <c r="C50" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="63">
-        <v>2021248353</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30">
-        <f t="shared" si="0"/>
         <v>78.566666666666663</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30" t="str">
-        <f>VLOOKUP(F50,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J50" s="29"/>
+      <c r="K50" s="30" t="str">
+        <f>VLOOKUP($I50,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.50</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="66" t="str">
+      <c r="L50" s="29"/>
+      <c r="M50" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="51">
+      <c r="N50" s="29"/>
+      <c r="O50" s="51">
         <v>66</v>
       </c>
-      <c r="M50" s="31">
+      <c r="P50" s="31">
         <v>24</v>
       </c>
-      <c r="N50" s="31">
+      <c r="Q50" s="31">
         <v>94</v>
       </c>
-      <c r="O50" s="31">
-        <f t="shared" si="11"/>
+      <c r="R50" s="31">
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
-      <c r="P50" s="32">
+      <c r="S50" s="32">
         <f t="shared" si="5"/>
         <v>61.333333333333336</v>
       </c>
-      <c r="Q50" s="33">
+      <c r="T50" s="33">
+        <f t="shared" si="8"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="U50" s="29"/>
+      <c r="V50" s="51">
+        <v>90</v>
+      </c>
+      <c r="W50" s="31">
+        <v>100</v>
+      </c>
+      <c r="X50" s="31">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="Y50" s="68">
         <f t="shared" si="7"/>
-        <v>30.666666666666668</v>
-      </c>
-      <c r="R50" s="29"/>
-      <c r="S50" s="51">
+        <v>9.5</v>
+      </c>
+      <c r="Z50" s="31">
         <v>90</v>
       </c>
-      <c r="T50" s="31">
-        <v>100</v>
-      </c>
-      <c r="U50" s="31">
-        <f t="shared" si="8"/>
-        <v>190</v>
-      </c>
-      <c r="V50" s="68">
-        <f t="shared" si="6"/>
-        <v>9.5</v>
-      </c>
-      <c r="W50" s="31">
-        <v>90</v>
-      </c>
-      <c r="X50" s="34">
+      <c r="AA50" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB50" s="69">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="35">
+        <v>49</v>
+      </c>
+      <c r="AE50" s="70">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y50" s="69">
+        <v>98</v>
+      </c>
+      <c r="AF50" s="33">
         <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="35">
-        <v>49</v>
-      </c>
-      <c r="AB50" s="70">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="AC50" s="33">
-        <f t="shared" si="2"/>
         <v>29.4</v>
       </c>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="39"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="40"/>
       <c r="AI50" s="40"/>
       <c r="AJ50" s="40"/>
-      <c r="AK50" s="40"/>
+      <c r="AK50" s="39"/>
       <c r="AL50" s="40"/>
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
@@ -7052,101 +7291,106 @@
       <c r="CZ50" s="40"/>
       <c r="DA50" s="40"/>
       <c r="DB50" s="40"/>
+      <c r="DC50" s="40"/>
+      <c r="DD50" s="40"/>
+      <c r="DE50" s="40"/>
     </row>
-    <row r="51" spans="1:106" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:109" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
-      <c r="B51" s="146">
+      <c r="B51" s="104">
         <v>41</v>
       </c>
-      <c r="C51" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="63">
+      <c r="C51" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="63">
         <v>2021346966</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30">
-        <f t="shared" si="0"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30">
+        <f t="shared" si="2"/>
         <v>75.983333333333334</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30" t="str">
-        <f>VLOOKUP(F51,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30" t="str">
+        <f>VLOOKUP($I51,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>2.75</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="66" t="str">
+      <c r="L51" s="29"/>
+      <c r="M51" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="51">
+      <c r="N51" s="29"/>
+      <c r="O51" s="51">
         <v>98</v>
       </c>
-      <c r="M51" s="31">
+      <c r="P51" s="31">
         <v>27</v>
       </c>
-      <c r="N51" s="31">
+      <c r="Q51" s="31">
         <v>99</v>
       </c>
-      <c r="O51" s="31">
-        <f t="shared" si="11"/>
+      <c r="R51" s="31">
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
-      <c r="P51" s="32">
+      <c r="S51" s="32">
         <f t="shared" si="5"/>
         <v>74.666666666666671</v>
       </c>
-      <c r="Q51" s="33">
+      <c r="T51" s="33">
+        <f t="shared" si="8"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="U51" s="29"/>
+      <c r="V51" s="51">
+        <v>55</v>
+      </c>
+      <c r="W51" s="31">
+        <v>82</v>
+      </c>
+      <c r="X51" s="31">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="Y51" s="68">
         <f t="shared" si="7"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="R51" s="29"/>
-      <c r="S51" s="51">
-        <v>55</v>
-      </c>
-      <c r="T51" s="31">
-        <v>82</v>
-      </c>
-      <c r="U51" s="31">
-        <f t="shared" si="8"/>
-        <v>137</v>
-      </c>
-      <c r="V51" s="68">
-        <f t="shared" si="6"/>
         <v>6.8500000000000005</v>
       </c>
-      <c r="W51" s="31">
+      <c r="Z51" s="31">
         <v>90</v>
       </c>
-      <c r="X51" s="34">
+      <c r="AA51" s="34">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AB51" s="69">
+        <f t="shared" si="0"/>
+        <v>15.850000000000001</v>
+      </c>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="35">
+        <v>38</v>
+      </c>
+      <c r="AE51" s="70">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Y51" s="69">
+        <v>76</v>
+      </c>
+      <c r="AF51" s="33">
         <f t="shared" si="1"/>
-        <v>15.850000000000001</v>
-      </c>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="35">
-        <v>38</v>
-      </c>
-      <c r="AB51" s="70">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="AC51" s="33">
-        <f t="shared" si="2"/>
         <v>22.8</v>
       </c>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="39"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="40"/>
       <c r="AI51" s="40"/>
       <c r="AJ51" s="40"/>
-      <c r="AK51" s="40"/>
+      <c r="AK51" s="39"/>
       <c r="AL51" s="40"/>
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
@@ -7216,101 +7460,106 @@
       <c r="CZ51" s="40"/>
       <c r="DA51" s="40"/>
       <c r="DB51" s="40"/>
+      <c r="DC51" s="40"/>
+      <c r="DD51" s="40"/>
+      <c r="DE51" s="40"/>
     </row>
-    <row r="52" spans="1:106" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:109" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
-      <c r="B52" s="146">
+      <c r="B52" s="104">
         <v>42</v>
       </c>
-      <c r="C52" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="63">
+      <c r="C52" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="63">
         <v>2020212052</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30">
-        <f t="shared" si="0"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30">
+        <f t="shared" si="2"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30" t="str">
-        <f>VLOOKUP(F52,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J52" s="29"/>
+      <c r="K52" s="30" t="str">
+        <f>VLOOKUP($I52,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>5.00</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="66" t="str">
+      <c r="L52" s="29"/>
+      <c r="M52" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="51">
+      <c r="N52" s="29"/>
+      <c r="O52" s="51">
         <v>29</v>
       </c>
-      <c r="M52" s="31">
+      <c r="P52" s="31">
         <v>27</v>
       </c>
-      <c r="N52" s="31">
+      <c r="Q52" s="31">
         <v>92</v>
       </c>
-      <c r="O52" s="31">
-        <f t="shared" si="11"/>
+      <c r="R52" s="31">
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
-      <c r="P52" s="32">
+      <c r="S52" s="32">
         <f t="shared" si="5"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="T52" s="33">
+        <f t="shared" si="8"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="U52" s="29"/>
+      <c r="V52" s="51">
+        <v>88</v>
+      </c>
+      <c r="W52" s="31">
+        <v>96</v>
+      </c>
+      <c r="X52" s="31">
+        <f t="shared" si="9"/>
+        <v>184</v>
+      </c>
+      <c r="Y52" s="68">
         <f t="shared" si="7"/>
-        <v>24.666666666666668</v>
-      </c>
-      <c r="R52" s="29"/>
-      <c r="S52" s="51">
-        <v>88</v>
-      </c>
-      <c r="T52" s="31">
-        <v>96</v>
-      </c>
-      <c r="U52" s="31">
-        <f t="shared" si="8"/>
-        <v>184</v>
-      </c>
-      <c r="V52" s="68">
-        <f t="shared" si="6"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="W52" s="31">
+      <c r="Z52" s="31">
         <v>70</v>
       </c>
-      <c r="X52" s="34">
+      <c r="AA52" s="34">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AB52" s="69">
+        <f t="shared" si="0"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="35">
+        <v>43</v>
+      </c>
+      <c r="AE52" s="70">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Y52" s="69">
+        <v>86</v>
+      </c>
+      <c r="AF52" s="33">
         <f t="shared" si="1"/>
-        <v>16.200000000000003</v>
-      </c>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="35">
-        <v>43</v>
-      </c>
-      <c r="AB52" s="70">
-        <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="AC52" s="33">
-        <f t="shared" si="2"/>
         <v>25.8</v>
       </c>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="40"/>
-      <c r="AF52" s="40"/>
-      <c r="AG52" s="40"/>
-      <c r="AH52" s="39"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
       <c r="AJ52" s="40"/>
-      <c r="AK52" s="40"/>
+      <c r="AK52" s="39"/>
       <c r="AL52" s="40"/>
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
@@ -7380,134 +7629,142 @@
       <c r="CZ52" s="40"/>
       <c r="DA52" s="40"/>
       <c r="DB52" s="40"/>
+      <c r="DC52" s="40"/>
+      <c r="DD52" s="40"/>
+      <c r="DE52" s="40"/>
     </row>
-    <row r="53" spans="1:106" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:109" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
-      <c r="B53" s="146">
+      <c r="B53" s="104">
         <v>43</v>
       </c>
-      <c r="C53" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="63">
+      <c r="C53" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="63">
         <v>2022146413</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30">
-        <f t="shared" si="0"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30">
+        <f t="shared" si="2"/>
         <v>89.4</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30" t="str">
-        <f>VLOOKUP(F53,Transmutation!$A$2:$D$12,3,TRUE)</f>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30" t="str">
+        <f>VLOOKUP($I53,Transmutation!$A$2:$D$12,3,TRUE)</f>
         <v>1.75</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="66" t="str">
+      <c r="L53" s="29"/>
+      <c r="M53" s="66" t="str">
         <f t="shared" si="3"/>
         <v>Passed</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="53">
+      <c r="N53" s="29"/>
+      <c r="O53" s="53">
         <v>99</v>
       </c>
-      <c r="M53" s="54">
+      <c r="P53" s="54">
         <v>71</v>
       </c>
-      <c r="N53" s="54">
+      <c r="Q53" s="54">
         <v>91</v>
       </c>
-      <c r="O53" s="54">
-        <f t="shared" si="11"/>
+      <c r="R53" s="54">
+        <f t="shared" si="12"/>
         <v>261</v>
       </c>
-      <c r="P53" s="55">
+      <c r="S53" s="55">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="Q53" s="56">
+      <c r="T53" s="56">
+        <f t="shared" si="8"/>
+        <v>43.5</v>
+      </c>
+      <c r="U53" s="29"/>
+      <c r="V53" s="53">
+        <v>98</v>
+      </c>
+      <c r="W53" s="54">
+        <v>72</v>
+      </c>
+      <c r="X53" s="54">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="Y53" s="68">
         <f t="shared" si="7"/>
-        <v>43.5</v>
-      </c>
-      <c r="R53" s="29"/>
-      <c r="S53" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="Z53" s="54">
+        <v>80</v>
+      </c>
+      <c r="AA53" s="57">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AB53" s="69">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="58">
+        <v>49</v>
+      </c>
+      <c r="AE53" s="70">
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="T53" s="54">
-        <v>72</v>
-      </c>
-      <c r="U53" s="54">
-        <f t="shared" si="8"/>
-        <v>170</v>
-      </c>
-      <c r="V53" s="68">
-        <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="W53" s="54">
-        <v>80</v>
-      </c>
-      <c r="X53" s="57">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Y53" s="69">
+      <c r="AF53" s="56">
         <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="58">
-        <v>49</v>
-      </c>
-      <c r="AB53" s="70">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="AC53" s="56">
-        <f t="shared" si="2"/>
         <v>29.4</v>
       </c>
-      <c r="AD53" s="29"/>
-      <c r="AH53" s="39"/>
+      <c r="AG53" s="29"/>
+      <c r="AK53" s="39"/>
     </row>
-    <row r="54" spans="1:106" s="59" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="131"/>
-      <c r="T54" s="131"/>
-      <c r="U54" s="131"/>
-      <c r="V54" s="131"/>
-      <c r="W54" s="131"/>
-      <c r="X54" s="132"/>
-      <c r="Y54" s="132"/>
-      <c r="Z54" s="129"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="129"/>
-      <c r="AC54" s="129"/>
-      <c r="AD54" s="133"/>
-      <c r="AE54" s="134"/>
-      <c r="AF54" s="134"/>
-      <c r="AG54" s="134"/>
-      <c r="AH54" s="135"/>
-      <c r="AI54" s="65"/>
-      <c r="AJ54" s="65"/>
-      <c r="AK54" s="65"/>
+    <row r="54" spans="1:109" s="59" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="92"/>
+      <c r="Q54" s="92"/>
+      <c r="R54" s="92"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="92"/>
+      <c r="W54" s="92"/>
+      <c r="X54" s="92"/>
+      <c r="Y54" s="92"/>
+      <c r="Z54" s="92"/>
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="93"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="94"/>
+      <c r="AH54" s="95"/>
+      <c r="AI54" s="95"/>
+      <c r="AJ54" s="95"/>
+      <c r="AK54" s="96"/>
       <c r="AL54" s="65"/>
       <c r="AM54" s="65"/>
       <c r="AN54" s="65"/>
@@ -7577,261 +7834,279 @@
       <c r="CZ54" s="65"/>
       <c r="DA54" s="65"/>
       <c r="DB54" s="65"/>
+      <c r="DC54" s="65"/>
+      <c r="DD54" s="65"/>
+      <c r="DE54" s="65"/>
     </row>
-    <row r="55" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="64"/>
       <c r="G55" s="64"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="64"/>
       <c r="I55" s="64"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="136"/>
-      <c r="T55" s="136"/>
-      <c r="U55" s="136"/>
-      <c r="V55" s="136"/>
-      <c r="W55" s="136"/>
-      <c r="X55" s="137"/>
-      <c r="Y55" s="137"/>
-      <c r="Z55" s="64"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="97"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="97"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
       <c r="AC55" s="64"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="40"/>
-      <c r="AF55" s="40"/>
-      <c r="AG55" s="40"/>
-      <c r="AH55" s="62"/>
-      <c r="AI55" s="47"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="64"/>
+      <c r="AF55" s="64"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="47"/>
     </row>
-    <row r="56" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
-      <c r="D56" s="60"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="29"/>
-      <c r="AI56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="60"/>
     </row>
-    <row r="57" spans="1:106" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:109" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
-      <c r="D57" s="60"/>
-      <c r="H57" s="1"/>
-      <c r="O57" s="7"/>
-      <c r="AA57" s="2"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="K57" s="1"/>
+      <c r="R57" s="7"/>
+      <c r="AD57" s="2"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="60"/>
     </row>
-    <row r="58" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
-      <c r="D58" s="60"/>
-      <c r="H58" s="1"/>
-      <c r="O58" s="7"/>
-      <c r="AA58" s="2"/>
-      <c r="AD58" s="61"/>
-      <c r="AE58" s="60"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="61"/>
+      <c r="E58" s="60"/>
+      <c r="K58" s="1"/>
+      <c r="R58" s="7"/>
+      <c r="AD58" s="2"/>
+      <c r="AG58" s="61"/>
+      <c r="AH58" s="60"/>
       <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="61"/>
+      <c r="AL58" s="60"/>
     </row>
-    <row r="59" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="1"/>
-      <c r="O59" s="7"/>
-      <c r="AA59" s="2"/>
-      <c r="AD59" s="61"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="61"/>
+    <row r="59" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="1"/>
+      <c r="R59" s="7"/>
+      <c r="AD59" s="2"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="60"/>
       <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="60"/>
     </row>
-    <row r="60" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="1"/>
-      <c r="O60" s="7"/>
-      <c r="AA60" s="2"/>
-      <c r="AD60" s="61"/>
-      <c r="AE60" s="60"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="61"/>
+    <row r="60" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="1"/>
+      <c r="R60" s="7"/>
+      <c r="AD60" s="2"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="60"/>
       <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="61"/>
+      <c r="AL60" s="60"/>
     </row>
-    <row r="61" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="1"/>
-      <c r="O61" s="7"/>
-      <c r="AA61" s="2"/>
+    <row r="61" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="1"/>
+      <c r="R61" s="7"/>
+      <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H62" s="1"/>
-      <c r="O62" s="7"/>
-      <c r="AA62" s="2"/>
+    <row r="62" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="1"/>
+      <c r="R62" s="7"/>
+      <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H63" s="1"/>
-      <c r="O63" s="7"/>
-      <c r="AA63" s="2"/>
+    <row r="63" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="1"/>
+      <c r="R63" s="7"/>
+      <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="1"/>
-      <c r="O64" s="7"/>
-      <c r="AA64" s="2"/>
+    <row r="64" spans="1:109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="1"/>
+      <c r="R64" s="7"/>
+      <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H65" s="1"/>
-      <c r="O65" s="7"/>
-      <c r="AA65" s="2"/>
+    <row r="65" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="1"/>
+      <c r="R65" s="7"/>
+      <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H66" s="1"/>
-      <c r="O66" s="7"/>
-      <c r="AA66" s="2"/>
+    <row r="66" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="1"/>
+      <c r="R66" s="7"/>
+      <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H67" s="1"/>
-      <c r="O67" s="7"/>
-      <c r="AA67" s="2"/>
+    <row r="67" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="1"/>
+      <c r="R67" s="7"/>
+      <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H68" s="1"/>
-      <c r="O68" s="7"/>
-      <c r="AA68" s="2"/>
+    <row r="68" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K68" s="1"/>
+      <c r="R68" s="7"/>
+      <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="1"/>
-      <c r="O69" s="7"/>
-      <c r="AA69" s="2"/>
+    <row r="69" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="1"/>
+      <c r="R69" s="7"/>
+      <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H70" s="1"/>
-      <c r="O70" s="7"/>
-      <c r="AA70" s="2"/>
+    <row r="70" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K70" s="1"/>
+      <c r="R70" s="7"/>
+      <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="1"/>
-      <c r="O71" s="7"/>
-      <c r="AA71" s="2"/>
+    <row r="71" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="1"/>
+      <c r="R71" s="7"/>
+      <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="8:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="1"/>
-      <c r="O72" s="7"/>
-      <c r="AA72" s="2"/>
+    <row r="72" spans="11:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="1"/>
+      <c r="R72" s="7"/>
+      <c r="AD72" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AE7:AG9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Y8:Y9"/>
+  <mergeCells count="36">
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AH7:AJ9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE46:AG46"/>
-    <mergeCell ref="AE47:AG47"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AH36:AI36"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA11:AA53 F11:F53 S11:W53 L11:O53">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="AD11:AD53 V11:Z53 O11:R53 G11:G53">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J53">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M11:M53">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Absent"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H53">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="1">
-      <formula>LEFT(H11,LEN("1"))="1"</formula>
+  <conditionalFormatting sqref="K11:K53">
+    <cfRule type="beginsWith" dxfId="10" priority="7" stopIfTrue="1" operator="beginsWith" text="1">
+      <formula>LEFT(K11,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="5.00">
-      <formula>NOT(ISERROR(SEARCH("5.00",H11)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="12" stopIfTrue="1" operator="containsText" text="5.00">
+      <formula>NOT(ISERROR(SEARCH("5.00",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" stopIfTrue="1" operator="containsText" text="8.00">
-      <formula>NOT(ISERROR(SEARCH("8.00",H11)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="13" stopIfTrue="1" operator="containsText" text="8.00">
+      <formula>NOT(ISERROR(SEARCH("8.00",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P53">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="S11:S53">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>#REF!*100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P15 P17:P19 AB11:AB53 X11:X53">
-    <cfRule type="cellIs" dxfId="4" priority="109" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="S21 S23 S25 S27 S29 S31 S33 S35 S37 S39 S41 S43 S45 S47 S49 S51 S53 S15 S17:S19 AE11:AE53 AA11:AA53">
+    <cfRule type="cellIs" dxfId="6" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>#REF!*100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11:AC53">
-    <cfRule type="cellIs" dxfId="3" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>$AC$8*#REF!*100</formula>
+  <conditionalFormatting sqref="AF11:AF53">
+    <cfRule type="cellIs" dxfId="5" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>$AF$8*#REF!*100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F53">
-    <cfRule type="cellIs" dxfId="2" priority="131" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G11:G53">
+    <cfRule type="cellIs" dxfId="4" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y53">
-    <cfRule type="cellIs" dxfId="1" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>$Y$8*#REF!*100</formula>
+  <conditionalFormatting sqref="AB11:AB53">
+    <cfRule type="cellIs" dxfId="3" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>$AB$8*#REF!*100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q53">
-    <cfRule type="cellIs" dxfId="0" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>$Q$8*#REF!*100</formula>
+  <conditionalFormatting sqref="T11:T53">
+    <cfRule type="cellIs" dxfId="2" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>$T$8*#REF!*100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I53">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I53">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7863,206 +8138,206 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="145">
+      <c r="A2" s="103">
         <v>0</v>
       </c>
-      <c r="B2" s="145">
+      <c r="B2" s="103">
         <v>0</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="143">
+      <c r="A3" s="101">
         <v>0.01</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="101">
         <v>69.989999999999995</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="144">
+      <c r="A4" s="102">
         <v>70</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="102">
         <v>73.319999999999993</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="143">
+      <c r="A5" s="101">
         <v>73.33</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="101">
         <v>76.66</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="143">
+      <c r="A6" s="101">
         <v>76.67</v>
       </c>
-      <c r="B6" s="143">
+      <c r="B6" s="101">
         <v>79.990000000000009</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="143">
+      <c r="A7" s="101">
         <v>80</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="101">
         <v>83.320000000000007</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="143">
+      <c r="A8" s="101">
         <v>83.33</v>
       </c>
-      <c r="B8" s="143">
+      <c r="B8" s="101">
         <v>86.66</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="143">
+      <c r="A9" s="101">
         <v>86.67</v>
       </c>
-      <c r="B9" s="143">
+      <c r="B9" s="101">
         <v>89.990000000000009</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="143">
+      <c r="A10" s="101">
         <v>90</v>
       </c>
-      <c r="B10" s="143">
+      <c r="B10" s="101">
         <v>93.320000000000007</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="144"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="143"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="143">
+      <c r="A11" s="101">
         <v>93.33</v>
       </c>
-      <c r="B11" s="143">
+      <c r="B11" s="101">
         <v>96.66</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="143">
+      <c r="A12" s="101">
         <v>96.67</v>
       </c>
-      <c r="B12" s="143">
+      <c r="B12" s="101">
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="145"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="143"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="103"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="101"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
